--- a/Axelrod FP.xlsx
+++ b/Axelrod FP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnpaulmintz/Dissertation/Analysis (git)/Still-Falls Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB91A49E-70AB-734D-B976-7F6477FC6CD2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{944191CD-597F-3E41-9222-893B951D7C37}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="2480" windowWidth="28040" windowHeight="16100" xr2:uid="{C5A99E80-ED8F-0C4D-90B9-C385916291CE}"/>
+    <workbookView xWindow="6340" yWindow="600" windowWidth="28040" windowHeight="15980" xr2:uid="{C5A99E80-ED8F-0C4D-90B9-C385916291CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -510,47 +510,17 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -904,7 +874,7 @@
   <dimension ref="A1:Q61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -917,31 +887,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1" t="s">
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1" t="s">
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1" t="s">
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
@@ -983,13 +953,13 @@
       <c r="N2" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1036,13 +1006,13 @@
       <c r="N3" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P3" s="2" t="s">
+      <c r="O3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="Q3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1089,13 +1059,13 @@
       <c r="N4" t="s">
         <v>48</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="O4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="P4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="Q4" s="1" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1142,13 +1112,13 @@
       <c r="N5" t="s">
         <v>3</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="O5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="P5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="Q5" s="1" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1195,13 +1165,13 @@
       <c r="N6" t="s">
         <v>3</v>
       </c>
-      <c r="O6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q6" s="2" t="s">
+      <c r="O6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="1" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1248,13 +1218,13 @@
       <c r="N7" t="s">
         <v>3</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="O7" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="P7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="Q7" s="1" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1301,13 +1271,13 @@
       <c r="N8" t="s">
         <v>3</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="O8" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="P8" s="2" t="s">
+      <c r="P8" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="Q8" s="2" t="s">
+      <c r="Q8" s="1" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1354,13 +1324,13 @@
       <c r="N9" t="s">
         <v>39</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="O9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="P9" s="2" t="s">
+      <c r="P9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="Q9" s="2" t="s">
+      <c r="Q9" s="1" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1407,13 +1377,13 @@
       <c r="N10" t="s">
         <v>3</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="O10" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="P10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q10" s="2" t="s">
+      <c r="P10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1460,13 +1430,13 @@
       <c r="N11" t="s">
         <v>41</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="O11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="P11" s="2" t="s">
+      <c r="P11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q11" s="2" t="s">
+      <c r="Q11" s="1" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1513,13 +1483,13 @@
       <c r="N12" t="s">
         <v>3</v>
       </c>
-      <c r="O12" s="2" t="s">
+      <c r="O12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="P12" s="2" t="s">
+      <c r="P12" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="Q12" s="2" t="s">
+      <c r="Q12" s="1" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1566,13 +1536,13 @@
       <c r="N13" t="s">
         <v>42</v>
       </c>
-      <c r="O13" s="2" t="s">
+      <c r="O13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="P13" s="2" t="s">
+      <c r="P13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Q13" s="2" t="s">
+      <c r="Q13" s="1" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1619,13 +1589,13 @@
       <c r="N14" t="s">
         <v>53</v>
       </c>
-      <c r="O14" s="2" t="s">
+      <c r="O14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="P14" s="2" t="s">
+      <c r="P14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="Q14" s="2" t="s">
+      <c r="Q14" s="1" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1672,13 +1642,13 @@
       <c r="N15" t="s">
         <v>3</v>
       </c>
-      <c r="O15" s="2" t="s">
+      <c r="O15" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="P15" s="2" t="s">
+      <c r="P15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="Q15" s="2" t="s">
+      <c r="Q15" s="1" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1725,13 +1695,13 @@
       <c r="N16" t="s">
         <v>42</v>
       </c>
-      <c r="O16" s="2" t="s">
+      <c r="O16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="P16" s="2" t="s">
+      <c r="P16" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="Q16" s="2" t="s">
+      <c r="Q16" s="1" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1778,13 +1748,13 @@
       <c r="N17" t="s">
         <v>3</v>
       </c>
-      <c r="O17" s="2" t="s">
+      <c r="O17" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="P17" s="2" t="s">
+      <c r="P17" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="Q17" s="2" t="s">
+      <c r="Q17" s="1" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1831,13 +1801,13 @@
       <c r="N18" t="s">
         <v>39</v>
       </c>
-      <c r="O18" s="2" t="s">
+      <c r="O18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="P18" s="2" t="s">
+      <c r="P18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="Q18" s="2" t="s">
+      <c r="Q18" s="1" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1884,13 +1854,13 @@
       <c r="N19" t="s">
         <v>39</v>
       </c>
-      <c r="O19" s="2" t="s">
+      <c r="O19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="P19" s="2" t="s">
+      <c r="P19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="Q19" s="2" t="s">
+      <c r="Q19" s="1" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1937,13 +1907,13 @@
       <c r="N20" t="s">
         <v>3</v>
       </c>
-      <c r="O20" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P20" s="2" t="s">
+      <c r="O20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Q20" s="2" t="s">
+      <c r="Q20" s="1" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1990,13 +1960,13 @@
       <c r="N21" t="s">
         <v>45</v>
       </c>
-      <c r="O21" s="2" t="s">
+      <c r="O21" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="P21" s="2" t="s">
+      <c r="P21" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Q21" s="2" t="s">
+      <c r="Q21" s="1" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2043,13 +2013,13 @@
       <c r="N22" t="s">
         <v>3</v>
       </c>
-      <c r="O22" s="2" t="s">
+      <c r="O22" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="P22" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q22" s="2" t="s">
+      <c r="P22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="1" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2096,13 +2066,13 @@
       <c r="N23" t="s">
         <v>3</v>
       </c>
-      <c r="O23" s="2" t="s">
+      <c r="O23" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="P23" s="2" t="s">
+      <c r="P23" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="Q23" s="2" t="s">
+      <c r="Q23" s="1" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2149,13 +2119,13 @@
       <c r="N24" t="s">
         <v>55</v>
       </c>
-      <c r="O24" s="2" t="s">
+      <c r="O24" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="P24" s="2" t="s">
+      <c r="P24" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="Q24" s="2" t="s">
+      <c r="Q24" s="1" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2202,13 +2172,13 @@
       <c r="N25" t="s">
         <v>3</v>
       </c>
-      <c r="O25" s="2" t="s">
+      <c r="O25" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="P25" s="2" t="s">
+      <c r="P25" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q25" s="2" t="s">
+      <c r="Q25" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2255,13 +2225,13 @@
       <c r="N26" t="s">
         <v>42</v>
       </c>
-      <c r="O26" s="2" t="s">
+      <c r="O26" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="P26" s="2" t="s">
+      <c r="P26" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="Q26" s="2" t="s">
+      <c r="Q26" s="1" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2308,13 +2278,13 @@
       <c r="N27" t="s">
         <v>3</v>
       </c>
-      <c r="O27" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P27" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q27" s="2" t="s">
+      <c r="O27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2361,13 +2331,13 @@
       <c r="N28" t="s">
         <v>3</v>
       </c>
-      <c r="O28" s="2" t="s">
+      <c r="O28" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="P28" s="2" t="s">
+      <c r="P28" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="Q28" s="2" t="s">
+      <c r="Q28" s="1" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2414,13 +2384,13 @@
       <c r="N29" t="s">
         <v>46</v>
       </c>
-      <c r="O29" s="2" t="s">
+      <c r="O29" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="P29" s="2" t="s">
+      <c r="P29" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Q29" s="2" t="s">
+      <c r="Q29" s="1" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2467,22 +2437,22 @@
       <c r="N30" t="s">
         <v>42</v>
       </c>
-      <c r="O30" s="2" t="s">
+      <c r="O30" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="P30" s="2" t="s">
+      <c r="P30" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Q30" s="2" t="s">
+      <c r="Q30" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
       <c r="F32" t="s">
         <v>139</v>
       </c>
@@ -2604,13 +2574,13 @@
       <c r="B40" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E40" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -2730,13 +2700,13 @@
       <c r="B49" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="E49" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -2744,13 +2714,13 @@
       <c r="B50" t="s">
         <v>19</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E50" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -2898,24 +2868,24 @@
       <c r="B61" t="s">
         <v>31</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D61" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="E61" s="2" t="s">
         <v>145</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C32:E32"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="O1:Q1"/>
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="C32:E32"/>
   </mergeCells>
   <conditionalFormatting sqref="I3:K30">
     <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="unk">

--- a/Axelrod FP.xlsx
+++ b/Axelrod FP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnpaulmintz/Dissertation/Analysis (git)/Still-Falls Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{944191CD-597F-3E41-9222-893B951D7C37}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD806416-1C07-8846-B8D9-AC07FBF895A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6340" yWindow="600" windowWidth="28040" windowHeight="15980" xr2:uid="{C5A99E80-ED8F-0C4D-90B9-C385916291CE}"/>
+    <workbookView xWindow="6820" yWindow="580" windowWidth="28040" windowHeight="15980" xr2:uid="{C5A99E80-ED8F-0C4D-90B9-C385916291CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="159">
   <si>
     <t>id</t>
   </si>
@@ -466,6 +466,42 @@
   </si>
   <si>
     <t>AllD*</t>
+  </si>
+  <si>
+    <t>Fail Manip</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>"No comments"</t>
+  </si>
+  <si>
+    <t>"Seemed Random"</t>
+  </si>
+  <si>
+    <t>"More Random Choices"</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>= Differences</t>
+  </si>
+  <si>
+    <t>= Minus failed manipulation check</t>
+  </si>
+  <si>
+    <t>Statistical Difference</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>Non</t>
+  </si>
+  <si>
+    <t>Fingerprint Difference</t>
   </si>
 </sst>
 </file>
@@ -507,7 +543,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -516,6 +552,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -871,129 +908,125 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE244BE4-BC56-524C-9A32-34902536105F}">
-  <dimension ref="A1:Q61"/>
+  <dimension ref="A1:S63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="25.1640625" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" customWidth="1"/>
-    <col min="6" max="6" width="54.6640625" customWidth="1"/>
-    <col min="7" max="7" width="56.33203125" customWidth="1"/>
-    <col min="8" max="8" width="60.1640625" customWidth="1"/>
+    <col min="1" max="3" width="23.1640625" customWidth="1"/>
+    <col min="5" max="5" width="25.1640625" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" customWidth="1"/>
+    <col min="7" max="7" width="59.33203125" customWidth="1"/>
+    <col min="8" max="8" width="54.6640625" customWidth="1"/>
+    <col min="9" max="9" width="56.33203125" customWidth="1"/>
+    <col min="10" max="10" width="60.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C1" s="3" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E1" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>32</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>34</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>32</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>34</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>1</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>32</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>34</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>1</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>32</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>82</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>83</v>
       </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" t="s">
         <v>82</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>83</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>84</v>
       </c>
-      <c r="I3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" t="s">
-        <v>3</v>
-      </c>
       <c r="K3" t="s">
         <v>3</v>
       </c>
@@ -1006,100 +1039,100 @@
       <c r="N3" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="P3" s="1" t="s">
+      <c r="O3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Q3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>85</v>
       </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
         <v>86</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>85</v>
       </c>
-      <c r="G4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" t="s">
         <v>86</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>37</v>
       </c>
-      <c r="J4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K4" t="s">
-        <v>3</v>
-      </c>
       <c r="L4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
         <v>37</v>
       </c>
-      <c r="M4" t="s">
-        <v>3</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
+        <v>3</v>
+      </c>
+      <c r="P4" t="s">
         <v>48</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
         <v>33</v>
       </c>
-      <c r="E5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" t="s">
         <v>87</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>33</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
         <v>88</v>
       </c>
-      <c r="I5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J5" t="s">
-        <v>3</v>
-      </c>
       <c r="K5" t="s">
         <v>3</v>
       </c>
@@ -1107,46 +1140,46 @@
         <v>3</v>
       </c>
       <c r="M5" t="s">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" t="s">
         <v>49</v>
       </c>
-      <c r="N5" t="s">
-        <v>3</v>
-      </c>
-      <c r="O5" s="1" t="s">
+      <c r="P5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
       <c r="E6" t="s">
         <v>3</v>
       </c>
       <c r="F6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" t="s">
         <v>89</v>
       </c>
-      <c r="G6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6" t="s">
-        <v>3</v>
-      </c>
       <c r="I6" t="s">
         <v>3</v>
       </c>
@@ -1165,47 +1198,47 @@
       <c r="N6" t="s">
         <v>3</v>
       </c>
-      <c r="O6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="P6" s="1" t="s">
+      <c r="O6" t="s">
+        <v>3</v>
+      </c>
+      <c r="P6" t="s">
         <v>3</v>
       </c>
       <c r="Q6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S6" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" t="s">
-        <v>3</v>
-      </c>
       <c r="E7" t="s">
         <v>3</v>
       </c>
       <c r="F7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
         <v>90</v>
       </c>
-      <c r="G7" t="s">
+      <c r="I7" t="s">
         <v>91</v>
       </c>
-      <c r="H7" t="s">
+      <c r="J7" t="s">
         <v>92</v>
       </c>
-      <c r="I7" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" t="s">
         <v>3</v>
       </c>
@@ -1218,47 +1251,47 @@
       <c r="N7" t="s">
         <v>3</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="O7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="R7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="S7" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" t="s">
-        <v>3</v>
-      </c>
       <c r="E8" t="s">
         <v>3</v>
       </c>
       <c r="F8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" t="s">
         <v>93</v>
       </c>
-      <c r="G8" t="s">
+      <c r="I8" t="s">
         <v>94</v>
       </c>
-      <c r="H8" t="s">
+      <c r="J8" t="s">
         <v>95</v>
       </c>
-      <c r="I8" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" t="s">
-        <v>3</v>
-      </c>
       <c r="K8" t="s">
         <v>3</v>
       </c>
@@ -1271,82 +1304,82 @@
       <c r="N8" t="s">
         <v>3</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="O8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="R8" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="S8" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
         <v>96</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
         <v>97</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
         <v>98</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H9" t="s">
         <v>96</v>
       </c>
-      <c r="G9" t="s">
+      <c r="I9" t="s">
         <v>97</v>
       </c>
-      <c r="H9" t="s">
+      <c r="J9" t="s">
         <v>98</v>
       </c>
-      <c r="I9" t="s">
+      <c r="K9" t="s">
         <v>38</v>
-      </c>
-      <c r="J9" t="s">
-        <v>38</v>
-      </c>
-      <c r="K9" t="s">
-        <v>39</v>
       </c>
       <c r="L9" t="s">
         <v>38</v>
       </c>
       <c r="M9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N9" t="s">
         <v>38</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
+        <v>38</v>
+      </c>
+      <c r="P9" t="s">
         <v>39</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="Q9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="P9" s="1" t="s">
+      <c r="R9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="Q9" s="1" t="s">
+      <c r="S9" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
         <v>10</v>
       </c>
-      <c r="C10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" t="s">
-        <v>3</v>
-      </c>
       <c r="E10" t="s">
         <v>3</v>
       </c>
@@ -1377,152 +1410,152 @@
       <c r="N10" t="s">
         <v>3</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="O10" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="P10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" t="s">
         <v>11</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>99</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
         <v>100</v>
       </c>
-      <c r="E11" t="s">
+      <c r="G11" t="s">
         <v>101</v>
       </c>
-      <c r="F11" t="s">
+      <c r="H11" t="s">
         <v>99</v>
       </c>
-      <c r="G11" t="s">
+      <c r="I11" t="s">
         <v>100</v>
       </c>
-      <c r="H11" t="s">
+      <c r="J11" t="s">
         <v>101</v>
       </c>
-      <c r="I11" t="s">
+      <c r="K11" t="s">
         <v>40</v>
-      </c>
-      <c r="J11" t="s">
-        <v>40</v>
-      </c>
-      <c r="K11" t="s">
-        <v>41</v>
       </c>
       <c r="L11" t="s">
         <v>40</v>
       </c>
       <c r="M11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N11" t="s">
         <v>40</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
+        <v>40</v>
+      </c>
+      <c r="P11" t="s">
         <v>41</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="Q11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="P11" s="1" t="s">
+      <c r="R11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q11" s="1" t="s">
+      <c r="S11" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
         <v>12</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
         <v>102</v>
       </c>
-      <c r="D12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" t="s">
-        <v>3</v>
-      </c>
       <c r="F12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" t="s">
         <v>102</v>
       </c>
-      <c r="G12" t="s">
+      <c r="I12" t="s">
         <v>103</v>
       </c>
-      <c r="H12" t="s">
+      <c r="J12" t="s">
         <v>89</v>
       </c>
-      <c r="I12" t="s">
-        <v>3</v>
-      </c>
-      <c r="J12" t="s">
-        <v>3</v>
-      </c>
       <c r="K12" t="s">
         <v>3</v>
       </c>
       <c r="L12" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
         <v>50</v>
       </c>
-      <c r="M12" t="s">
-        <v>3</v>
-      </c>
-      <c r="N12" t="s">
-        <v>3</v>
-      </c>
-      <c r="O12" s="1" t="s">
+      <c r="O12" t="s">
+        <v>3</v>
+      </c>
+      <c r="P12" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="P12" s="1" t="s">
+      <c r="R12" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="Q12" s="1" t="s">
+      <c r="S12" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+      <c r="D13" t="s">
         <v>13</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
         <v>104</v>
       </c>
-      <c r="D13" t="s">
+      <c r="F13" t="s">
         <v>105</v>
       </c>
-      <c r="E13" t="s">
+      <c r="G13" t="s">
         <v>106</v>
       </c>
-      <c r="F13" t="s">
+      <c r="H13" t="s">
         <v>104</v>
       </c>
-      <c r="G13" t="s">
+      <c r="I13" t="s">
         <v>105</v>
       </c>
-      <c r="H13" t="s">
+      <c r="J13" t="s">
         <v>106</v>
-      </c>
-      <c r="I13" t="s">
-        <v>42</v>
-      </c>
-      <c r="J13" t="s">
-        <v>42</v>
       </c>
       <c r="K13" t="s">
         <v>42</v>
@@ -1536,206 +1569,206 @@
       <c r="N13" t="s">
         <v>42</v>
       </c>
-      <c r="O13" s="1" t="s">
+      <c r="O13" t="s">
         <v>42</v>
       </c>
-      <c r="P13" s="1" t="s">
+      <c r="P13" t="s">
         <v>42</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
+      <c r="D14" t="s">
         <v>14</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E14" t="s">
         <v>107</v>
       </c>
-      <c r="D14" t="s">
+      <c r="F14" t="s">
         <v>108</v>
       </c>
-      <c r="E14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" t="s">
         <v>107</v>
       </c>
-      <c r="G14" t="s">
+      <c r="I14" t="s">
         <v>108</v>
       </c>
-      <c r="H14" t="s">
+      <c r="J14" t="s">
         <v>109</v>
       </c>
-      <c r="I14" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" t="s">
-        <v>3</v>
-      </c>
       <c r="K14" t="s">
         <v>3</v>
       </c>
       <c r="L14" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
         <v>51</v>
       </c>
-      <c r="M14" t="s">
+      <c r="O14" t="s">
         <v>52</v>
       </c>
-      <c r="N14" t="s">
+      <c r="P14" t="s">
         <v>53</v>
       </c>
-      <c r="O14" s="1" t="s">
+      <c r="Q14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="P14" s="1" t="s">
+      <c r="R14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="Q14" s="1" t="s">
+      <c r="S14" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D15" t="s">
         <v>15</v>
       </c>
-      <c r="C15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" t="s">
         <v>97</v>
       </c>
-      <c r="E15" t="s">
+      <c r="G15" t="s">
         <v>111</v>
       </c>
-      <c r="F15" t="s">
+      <c r="H15" t="s">
         <v>110</v>
       </c>
-      <c r="G15" t="s">
+      <c r="I15" t="s">
         <v>97</v>
       </c>
-      <c r="H15" t="s">
+      <c r="J15" t="s">
         <v>111</v>
       </c>
-      <c r="I15" t="s">
-        <v>3</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" t="s">
         <v>38</v>
       </c>
-      <c r="K15" t="s">
-        <v>3</v>
-      </c>
-      <c r="L15" t="s">
-        <v>3</v>
-      </c>
       <c r="M15" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" t="s">
         <v>38</v>
       </c>
-      <c r="N15" t="s">
-        <v>3</v>
-      </c>
-      <c r="O15" s="1" t="s">
+      <c r="P15" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="P15" s="1" t="s">
+      <c r="R15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="Q15" s="1" t="s">
+      <c r="S15" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
+      <c r="D16" t="s">
         <v>16</v>
       </c>
-      <c r="C16" t="s">
+      <c r="E16" t="s">
         <v>104</v>
       </c>
-      <c r="D16" t="s">
+      <c r="F16" t="s">
         <v>112</v>
       </c>
-      <c r="E16" t="s">
+      <c r="G16" t="s">
         <v>106</v>
       </c>
-      <c r="F16" t="s">
+      <c r="H16" t="s">
         <v>104</v>
       </c>
-      <c r="G16" t="s">
+      <c r="I16" t="s">
         <v>112</v>
       </c>
-      <c r="H16" t="s">
+      <c r="J16" t="s">
         <v>106</v>
-      </c>
-      <c r="I16" t="s">
-        <v>42</v>
-      </c>
-      <c r="J16" t="s">
-        <v>3</v>
       </c>
       <c r="K16" t="s">
         <v>42</v>
       </c>
       <c r="L16" t="s">
+        <v>3</v>
+      </c>
+      <c r="M16" t="s">
         <v>42</v>
-      </c>
-      <c r="M16" t="s">
-        <v>54</v>
       </c>
       <c r="N16" t="s">
         <v>42</v>
       </c>
-      <c r="O16" s="1" t="s">
+      <c r="O16" t="s">
+        <v>54</v>
+      </c>
+      <c r="P16" t="s">
         <v>42</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="Q16" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
+      <c r="D17" t="s">
         <v>17</v>
       </c>
-      <c r="C17" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" t="s">
-        <v>3</v>
-      </c>
       <c r="E17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" t="s">
         <v>111</v>
       </c>
-      <c r="F17" t="s">
+      <c r="H17" t="s">
         <v>113</v>
       </c>
-      <c r="G17" t="s">
+      <c r="I17" t="s">
         <v>23</v>
       </c>
-      <c r="H17" t="s">
+      <c r="J17" t="s">
         <v>111</v>
       </c>
-      <c r="I17" t="s">
-        <v>3</v>
-      </c>
-      <c r="J17" t="s">
-        <v>3</v>
-      </c>
       <c r="K17" t="s">
         <v>3</v>
       </c>
@@ -1743,264 +1776,264 @@
         <v>3</v>
       </c>
       <c r="M17" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" t="s">
         <v>50</v>
       </c>
-      <c r="N17" t="s">
-        <v>3</v>
-      </c>
-      <c r="O17" s="1" t="s">
+      <c r="P17" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="P17" s="1" t="s">
+      <c r="R17" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="Q17" s="1" t="s">
+      <c r="S17" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
+      <c r="D18" t="s">
         <v>18</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
         <v>96</v>
       </c>
-      <c r="D18" t="s">
+      <c r="F18" t="s">
         <v>97</v>
       </c>
-      <c r="E18" t="s">
+      <c r="G18" t="s">
         <v>98</v>
       </c>
-      <c r="F18" t="s">
+      <c r="H18" t="s">
         <v>96</v>
       </c>
-      <c r="G18" t="s">
+      <c r="I18" t="s">
         <v>97</v>
       </c>
-      <c r="H18" t="s">
+      <c r="J18" t="s">
         <v>98</v>
       </c>
-      <c r="I18" t="s">
+      <c r="K18" t="s">
         <v>38</v>
-      </c>
-      <c r="J18" t="s">
-        <v>38</v>
-      </c>
-      <c r="K18" t="s">
-        <v>39</v>
       </c>
       <c r="L18" t="s">
         <v>38</v>
       </c>
       <c r="M18" t="s">
+        <v>39</v>
+      </c>
+      <c r="N18" t="s">
         <v>38</v>
       </c>
-      <c r="N18" t="s">
+      <c r="O18" t="s">
+        <v>38</v>
+      </c>
+      <c r="P18" t="s">
         <v>39</v>
       </c>
-      <c r="O18" s="1" t="s">
+      <c r="Q18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="P18" s="1" t="s">
+      <c r="R18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="Q18" s="1" t="s">
+      <c r="S18" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
+      <c r="D19" t="s">
         <v>19</v>
       </c>
-      <c r="C19" t="s">
+      <c r="E19" t="s">
         <v>96</v>
       </c>
-      <c r="D19" t="s">
+      <c r="F19" t="s">
         <v>97</v>
       </c>
-      <c r="E19" t="s">
+      <c r="G19" t="s">
         <v>98</v>
       </c>
-      <c r="F19" t="s">
+      <c r="H19" t="s">
         <v>96</v>
       </c>
-      <c r="G19" t="s">
+      <c r="I19" t="s">
         <v>97</v>
       </c>
-      <c r="H19" t="s">
+      <c r="J19" t="s">
         <v>98</v>
       </c>
-      <c r="I19" t="s">
+      <c r="K19" t="s">
         <v>38</v>
-      </c>
-      <c r="J19" t="s">
-        <v>38</v>
-      </c>
-      <c r="K19" t="s">
-        <v>39</v>
       </c>
       <c r="L19" t="s">
         <v>38</v>
       </c>
       <c r="M19" t="s">
+        <v>39</v>
+      </c>
+      <c r="N19" t="s">
         <v>38</v>
       </c>
-      <c r="N19" t="s">
+      <c r="O19" t="s">
+        <v>38</v>
+      </c>
+      <c r="P19" t="s">
         <v>39</v>
       </c>
-      <c r="O19" s="1" t="s">
+      <c r="Q19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="P19" s="1" t="s">
+      <c r="R19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="Q19" s="1" t="s">
+      <c r="S19" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
+      <c r="D20" t="s">
         <v>20</v>
       </c>
-      <c r="C20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" t="s">
         <v>114</v>
       </c>
-      <c r="E20" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" t="s">
-        <v>3</v>
-      </c>
       <c r="G20" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" t="s">
         <v>114</v>
       </c>
-      <c r="H20" t="s">
+      <c r="J20" t="s">
         <v>115</v>
       </c>
-      <c r="I20" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" t="s">
         <v>43</v>
       </c>
-      <c r="K20" t="s">
-        <v>3</v>
-      </c>
-      <c r="L20" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" t="s">
         <v>43</v>
       </c>
-      <c r="N20" t="s">
-        <v>3</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="P20" s="1" t="s">
+      <c r="P20" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R20" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Q20" s="1" t="s">
+      <c r="S20" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
+      <c r="D21" t="s">
         <v>21</v>
       </c>
-      <c r="C21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" t="s">
         <v>116</v>
       </c>
-      <c r="E21" t="s">
+      <c r="G21" t="s">
         <v>117</v>
       </c>
-      <c r="F21" t="s">
+      <c r="H21" t="s">
         <v>110</v>
       </c>
-      <c r="G21" t="s">
+      <c r="I21" t="s">
         <v>116</v>
       </c>
-      <c r="H21" t="s">
+      <c r="J21" t="s">
         <v>117</v>
       </c>
-      <c r="I21" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" t="s">
         <v>44</v>
       </c>
-      <c r="K21" t="s">
+      <c r="M21" t="s">
         <v>45</v>
       </c>
-      <c r="L21" t="s">
-        <v>3</v>
-      </c>
-      <c r="M21" t="s">
+      <c r="N21" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" t="s">
         <v>44</v>
       </c>
-      <c r="N21" t="s">
+      <c r="P21" t="s">
         <v>45</v>
       </c>
-      <c r="O21" s="1" t="s">
+      <c r="Q21" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="P21" s="1" t="s">
+      <c r="R21" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Q21" s="1" t="s">
+      <c r="S21" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
+      <c r="D22" t="s">
         <v>22</v>
       </c>
-      <c r="C22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" t="s">
-        <v>3</v>
-      </c>
       <c r="E22" t="s">
         <v>3</v>
       </c>
       <c r="F22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" t="s">
         <v>118</v>
       </c>
-      <c r="G22" t="s">
+      <c r="I22" t="s">
         <v>119</v>
       </c>
-      <c r="H22" t="s">
+      <c r="J22" t="s">
         <v>120</v>
       </c>
-      <c r="I22" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" t="s">
-        <v>3</v>
-      </c>
       <c r="K22" t="s">
         <v>3</v>
       </c>
@@ -2013,44 +2046,44 @@
       <c r="N22" t="s">
         <v>3</v>
       </c>
-      <c r="O22" s="1" t="s">
+      <c r="O22" t="s">
+        <v>3</v>
+      </c>
+      <c r="P22" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="P22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q22" s="1" t="s">
+      <c r="R22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S22" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
+      <c r="D23" t="s">
         <v>24</v>
       </c>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" t="s">
         <v>122</v>
       </c>
-      <c r="E23" t="s">
-        <v>3</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
+        <v>3</v>
+      </c>
+      <c r="H23" t="s">
         <v>121</v>
       </c>
-      <c r="G23" t="s">
+      <c r="I23" t="s">
         <v>122</v>
       </c>
-      <c r="H23" t="s">
-        <v>3</v>
-      </c>
-      <c r="I23" t="s">
-        <v>3</v>
-      </c>
       <c r="J23" t="s">
         <v>3</v>
       </c>
@@ -2058,60 +2091,60 @@
         <v>3</v>
       </c>
       <c r="L23" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
         <v>50</v>
       </c>
-      <c r="M23" t="s">
-        <v>3</v>
-      </c>
-      <c r="N23" t="s">
-        <v>3</v>
-      </c>
-      <c r="O23" s="1" t="s">
+      <c r="O23" t="s">
+        <v>3</v>
+      </c>
+      <c r="P23" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="P23" s="1" t="s">
+      <c r="R23" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="Q23" s="1" t="s">
+      <c r="S23" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
+      <c r="D24" t="s">
         <v>25</v>
       </c>
-      <c r="C24" t="s">
+      <c r="E24" t="s">
         <v>123</v>
       </c>
-      <c r="D24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" t="s">
         <v>125</v>
       </c>
-      <c r="F24" t="s">
+      <c r="H24" t="s">
         <v>123</v>
       </c>
-      <c r="G24" t="s">
+      <c r="I24" t="s">
         <v>124</v>
       </c>
-      <c r="H24" t="s">
+      <c r="J24" t="s">
         <v>125</v>
       </c>
-      <c r="I24" t="s">
-        <v>3</v>
-      </c>
-      <c r="J24" t="s">
-        <v>3</v>
-      </c>
       <c r="K24" t="s">
         <v>3</v>
       </c>
       <c r="L24" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="M24" t="s">
         <v>3</v>
@@ -2119,153 +2152,153 @@
       <c r="N24" t="s">
         <v>55</v>
       </c>
-      <c r="O24" s="1" t="s">
+      <c r="O24" t="s">
+        <v>3</v>
+      </c>
+      <c r="P24" t="s">
         <v>55</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="Q24" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
+      <c r="D25" t="s">
         <v>26</v>
       </c>
-      <c r="C25" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" t="s">
         <v>100</v>
       </c>
-      <c r="E25" t="s">
-        <v>3</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
+        <v>3</v>
+      </c>
+      <c r="H25" t="s">
         <v>126</v>
       </c>
-      <c r="G25" t="s">
+      <c r="I25" t="s">
         <v>100</v>
       </c>
-      <c r="H25" t="s">
-        <v>3</v>
-      </c>
-      <c r="I25" t="s">
-        <v>3</v>
-      </c>
       <c r="J25" t="s">
+        <v>3</v>
+      </c>
+      <c r="K25" t="s">
+        <v>3</v>
+      </c>
+      <c r="L25" t="s">
         <v>40</v>
       </c>
-      <c r="K25" t="s">
-        <v>3</v>
-      </c>
-      <c r="L25" t="s">
-        <v>3</v>
-      </c>
       <c r="M25" t="s">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>3</v>
+      </c>
+      <c r="O25" t="s">
         <v>40</v>
       </c>
-      <c r="N25" t="s">
-        <v>3</v>
-      </c>
-      <c r="O25" s="1" t="s">
+      <c r="P25" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q25" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="P25" s="1" t="s">
+      <c r="R25" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q25" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S25" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
+      <c r="D26" t="s">
         <v>27</v>
       </c>
-      <c r="C26" t="s">
+      <c r="E26" t="s">
         <v>127</v>
       </c>
-      <c r="D26" t="s">
+      <c r="F26" t="s">
         <v>122</v>
       </c>
-      <c r="E26" t="s">
+      <c r="G26" t="s">
         <v>106</v>
       </c>
-      <c r="F26" t="s">
+      <c r="H26" t="s">
         <v>127</v>
       </c>
-      <c r="G26" t="s">
+      <c r="I26" t="s">
         <v>122</v>
       </c>
-      <c r="H26" t="s">
+      <c r="J26" t="s">
         <v>106</v>
       </c>
-      <c r="I26" t="s">
-        <v>3</v>
-      </c>
-      <c r="J26" t="s">
-        <v>3</v>
-      </c>
       <c r="K26" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" t="s">
         <v>42</v>
       </c>
-      <c r="L26" t="s">
-        <v>3</v>
-      </c>
-      <c r="M26" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" t="s">
+        <v>3</v>
+      </c>
+      <c r="P26" t="s">
         <v>42</v>
       </c>
-      <c r="O26" s="1" t="s">
+      <c r="Q26" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="P26" s="1" t="s">
+      <c r="R26" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="Q26" s="1" t="s">
+      <c r="S26" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
-      <c r="B27" t="s">
+      <c r="D27" t="s">
         <v>28</v>
       </c>
-      <c r="C27" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27" t="s">
-        <v>3</v>
-      </c>
       <c r="E27" t="s">
         <v>3</v>
       </c>
       <c r="F27" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" t="s">
+        <v>3</v>
+      </c>
+      <c r="H27" t="s">
         <v>128</v>
       </c>
-      <c r="G27" t="s">
+      <c r="I27" t="s">
         <v>129</v>
       </c>
-      <c r="H27" t="s">
+      <c r="J27" t="s">
         <v>130</v>
       </c>
-      <c r="I27" t="s">
-        <v>3</v>
-      </c>
-      <c r="J27" t="s">
-        <v>3</v>
-      </c>
       <c r="K27" t="s">
         <v>3</v>
       </c>
@@ -2278,47 +2311,47 @@
       <c r="N27" t="s">
         <v>3</v>
       </c>
-      <c r="O27" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="P27" s="1" t="s">
+      <c r="O27" t="s">
+        <v>3</v>
+      </c>
+      <c r="P27" t="s">
         <v>3</v>
       </c>
       <c r="Q27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S27" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
+      <c r="D28" t="s">
         <v>29</v>
       </c>
-      <c r="C28" t="s">
+      <c r="E28" t="s">
         <v>131</v>
       </c>
-      <c r="D28" t="s">
-        <v>3</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" t="s">
         <v>133</v>
       </c>
-      <c r="F28" t="s">
+      <c r="H28" t="s">
         <v>131</v>
       </c>
-      <c r="G28" t="s">
+      <c r="I28" t="s">
         <v>132</v>
       </c>
-      <c r="H28" t="s">
+      <c r="J28" t="s">
         <v>133</v>
       </c>
-      <c r="I28" t="s">
-        <v>3</v>
-      </c>
-      <c r="J28" t="s">
-        <v>3</v>
-      </c>
       <c r="K28" t="s">
         <v>3</v>
       </c>
@@ -2331,99 +2364,99 @@
       <c r="N28" t="s">
         <v>3</v>
       </c>
-      <c r="O28" s="1" t="s">
+      <c r="O28" t="s">
+        <v>3</v>
+      </c>
+      <c r="P28" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q28" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="P28" s="1" t="s">
+      <c r="R28" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="Q28" s="1" t="s">
+      <c r="S28" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
+      <c r="D29" t="s">
         <v>30</v>
       </c>
-      <c r="C29" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" t="s">
         <v>135</v>
       </c>
-      <c r="E29" t="s">
+      <c r="G29" t="s">
         <v>136</v>
       </c>
-      <c r="F29" t="s">
+      <c r="H29" t="s">
         <v>134</v>
       </c>
-      <c r="G29" t="s">
+      <c r="I29" t="s">
         <v>135</v>
       </c>
-      <c r="H29" t="s">
+      <c r="J29" t="s">
         <v>136</v>
       </c>
-      <c r="I29" t="s">
-        <v>3</v>
-      </c>
-      <c r="J29" t="s">
-        <v>3</v>
-      </c>
       <c r="K29" t="s">
+        <v>3</v>
+      </c>
+      <c r="L29" t="s">
+        <v>3</v>
+      </c>
+      <c r="M29" t="s">
         <v>46</v>
       </c>
-      <c r="L29" t="s">
-        <v>3</v>
-      </c>
-      <c r="M29" t="s">
+      <c r="N29" t="s">
+        <v>3</v>
+      </c>
+      <c r="O29" t="s">
         <v>56</v>
       </c>
-      <c r="N29" t="s">
+      <c r="P29" t="s">
         <v>46</v>
       </c>
-      <c r="O29" s="1" t="s">
+      <c r="Q29" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="P29" s="1" t="s">
+      <c r="R29" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Q29" s="1" t="s">
+      <c r="S29" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
+      <c r="D30" t="s">
         <v>31</v>
       </c>
-      <c r="C30" t="s">
+      <c r="E30" t="s">
         <v>104</v>
       </c>
-      <c r="D30" t="s">
+      <c r="F30" t="s">
         <v>105</v>
       </c>
-      <c r="E30" t="s">
+      <c r="G30" t="s">
         <v>106</v>
       </c>
-      <c r="F30" t="s">
+      <c r="H30" t="s">
         <v>104</v>
       </c>
-      <c r="G30" t="s">
+      <c r="I30" t="s">
         <v>105</v>
       </c>
-      <c r="H30" t="s">
+      <c r="J30" t="s">
         <v>106</v>
-      </c>
-      <c r="I30" t="s">
-        <v>42</v>
-      </c>
-      <c r="J30" t="s">
-        <v>42</v>
       </c>
       <c r="K30" t="s">
         <v>42</v>
@@ -2437,474 +2470,645 @@
       <c r="N30" t="s">
         <v>42</v>
       </c>
-      <c r="O30" s="1" t="s">
+      <c r="O30" t="s">
         <v>42</v>
       </c>
-      <c r="P30" s="1" t="s">
+      <c r="P30" t="s">
         <v>42</v>
       </c>
       <c r="Q30" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C32" s="3" t="s">
+      <c r="R30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E32" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" t="s">
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>147</v>
+      </c>
       <c r="B33" t="s">
+        <v>155</v>
+      </c>
+      <c r="C33" t="s">
+        <v>158</v>
+      </c>
+      <c r="D33" t="s">
         <v>0</v>
       </c>
-      <c r="C33" t="s">
+      <c r="E33" t="s">
         <v>1</v>
       </c>
-      <c r="D33" t="s">
+      <c r="F33" t="s">
         <v>32</v>
       </c>
-      <c r="E33" t="s">
+      <c r="G33" t="s">
         <v>34</v>
       </c>
-      <c r="F33" t="s">
+      <c r="H33" t="s">
         <v>140</v>
       </c>
-      <c r="G33" t="s">
+      <c r="I33" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
+        <v>152</v>
+      </c>
+      <c r="C34" t="s">
+        <v>152</v>
+      </c>
+      <c r="D34" t="s">
         <v>2</v>
       </c>
-      <c r="C34" t="s">
+      <c r="E34" t="s">
         <v>82</v>
       </c>
-      <c r="D34" t="s">
+      <c r="F34" t="s">
         <v>83</v>
       </c>
-      <c r="E34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H34" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
+        <v>152</v>
+      </c>
+      <c r="C35" t="s">
+        <v>152</v>
+      </c>
+      <c r="D35" t="s">
         <v>4</v>
       </c>
-      <c r="C35" t="s">
+      <c r="E35" t="s">
         <v>85</v>
       </c>
-      <c r="D35" t="s">
-        <v>3</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35" t="s">
         <v>86</v>
       </c>
-      <c r="F35" t="s">
+      <c r="H35" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
+        <v>152</v>
+      </c>
+      <c r="C36" t="s">
+        <v>152</v>
+      </c>
+      <c r="D36" t="s">
         <v>5</v>
       </c>
-      <c r="C36" t="s">
-        <v>3</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36" t="s">
         <v>33</v>
       </c>
-      <c r="E36" t="s">
-        <v>3</v>
-      </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
+        <v>3</v>
+      </c>
+      <c r="H36" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>148</v>
+      </c>
       <c r="B37" t="s">
+        <v>152</v>
+      </c>
+      <c r="D37" t="s">
         <v>6</v>
       </c>
-      <c r="C37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D37" t="s">
-        <v>3</v>
-      </c>
       <c r="E37" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
+      <c r="F37" t="s">
+        <v>3</v>
+      </c>
+      <c r="G37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="D38" t="s">
         <v>7</v>
       </c>
-      <c r="C38" t="s">
-        <v>3</v>
-      </c>
-      <c r="D38" t="s">
-        <v>3</v>
-      </c>
       <c r="E38" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F38" t="s">
+        <v>3</v>
+      </c>
+      <c r="G38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
+        <v>152</v>
+      </c>
+      <c r="D39" t="s">
         <v>8</v>
       </c>
-      <c r="C39" t="s">
-        <v>3</v>
-      </c>
-      <c r="D39" t="s">
-        <v>3</v>
-      </c>
       <c r="E39" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
+      <c r="F39" t="s">
+        <v>3</v>
+      </c>
+      <c r="G39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>150</v>
+      </c>
+      <c r="D40" t="s">
         <v>9</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F40" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
+        <v>152</v>
+      </c>
+      <c r="D41" t="s">
         <v>10</v>
       </c>
-      <c r="C41" t="s">
-        <v>3</v>
-      </c>
-      <c r="D41" t="s">
-        <v>3</v>
-      </c>
       <c r="E41" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F41" t="s">
+        <v>3</v>
+      </c>
+      <c r="G41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
+        <v>156</v>
+      </c>
+      <c r="C42" t="s">
+        <v>152</v>
+      </c>
+      <c r="D42" t="s">
         <v>11</v>
       </c>
-      <c r="C42" t="s">
+      <c r="E42" t="s">
         <v>99</v>
       </c>
-      <c r="D42" t="s">
+      <c r="F42" t="s">
         <v>100</v>
       </c>
-      <c r="E42" t="s">
+      <c r="G42" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
+        <v>152</v>
+      </c>
+      <c r="C43" t="s">
+        <v>152</v>
+      </c>
+      <c r="D43" t="s">
         <v>12</v>
       </c>
-      <c r="C43" t="s">
+      <c r="E43" t="s">
         <v>102</v>
       </c>
-      <c r="D43" t="s">
-        <v>3</v>
-      </c>
-      <c r="E43" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B44" t="s">
+      <c r="F43" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>148</v>
+      </c>
+      <c r="D44" t="s">
         <v>13</v>
       </c>
-      <c r="C44" t="s">
+      <c r="E44" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D44" t="s">
+      <c r="F44" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E44" t="s">
+      <c r="G44" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
+        <v>152</v>
+      </c>
+      <c r="C45" t="s">
+        <v>152</v>
+      </c>
+      <c r="D45" t="s">
         <v>14</v>
       </c>
-      <c r="C45" t="s">
+      <c r="E45" t="s">
         <v>107</v>
       </c>
-      <c r="D45" t="s">
+      <c r="F45" t="s">
         <v>108</v>
       </c>
-      <c r="E45" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G45" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
+        <v>152</v>
+      </c>
+      <c r="C46" t="s">
+        <v>152</v>
+      </c>
+      <c r="D46" t="s">
         <v>15</v>
       </c>
-      <c r="C46" t="s">
-        <v>3</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
+        <v>3</v>
+      </c>
+      <c r="F46" t="s">
         <v>146</v>
       </c>
-      <c r="E46" t="s">
+      <c r="G46" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>151</v>
+      </c>
       <c r="B47" t="s">
+        <v>157</v>
+      </c>
+      <c r="C47" t="s">
+        <v>152</v>
+      </c>
+      <c r="D47" t="s">
         <v>16</v>
-      </c>
-      <c r="C47" t="s">
-        <v>145</v>
-      </c>
-      <c r="D47" t="s">
-        <v>112</v>
       </c>
       <c r="E47" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F47" t="s">
+        <v>112</v>
+      </c>
+      <c r="G47" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
+        <v>152</v>
+      </c>
+      <c r="C48" t="s">
+        <v>152</v>
+      </c>
+      <c r="D48" t="s">
         <v>17</v>
       </c>
-      <c r="C48" t="s">
-        <v>3</v>
-      </c>
-      <c r="D48" t="s">
-        <v>3</v>
-      </c>
       <c r="E48" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B49" t="s">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D49" t="s">
         <v>18</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B50" t="s">
+      <c r="F49" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>148</v>
+      </c>
+      <c r="D50" t="s">
         <v>19</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F50" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
+        <v>152</v>
+      </c>
+      <c r="C51" t="s">
+        <v>152</v>
+      </c>
+      <c r="D51" t="s">
         <v>20</v>
       </c>
-      <c r="C51" t="s">
-        <v>3</v>
-      </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
+        <v>3</v>
+      </c>
+      <c r="F51" t="s">
         <v>114</v>
       </c>
-      <c r="E51" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B52" t="s">
+      <c r="G51" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B52">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="C52" t="s">
+        <v>152</v>
+      </c>
+      <c r="D52" t="s">
         <v>21</v>
       </c>
-      <c r="C52" t="s">
-        <v>3</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" t="s">
         <v>116</v>
       </c>
-      <c r="E52" t="s">
+      <c r="G52" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
+        <v>152</v>
+      </c>
+      <c r="D53" t="s">
         <v>22</v>
       </c>
-      <c r="C53" t="s">
-        <v>3</v>
-      </c>
-      <c r="D53" t="s">
-        <v>3</v>
-      </c>
       <c r="E53" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F53" t="s">
+        <v>3</v>
+      </c>
+      <c r="G53" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>148</v>
+      </c>
       <c r="B54" t="s">
+        <v>152</v>
+      </c>
+      <c r="C54" t="s">
+        <v>152</v>
+      </c>
+      <c r="D54" t="s">
         <v>24</v>
       </c>
-      <c r="C54" t="s">
-        <v>3</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
+        <v>3</v>
+      </c>
+      <c r="F54" t="s">
         <v>122</v>
       </c>
-      <c r="E54" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G54" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
+        <v>152</v>
+      </c>
+      <c r="C55" t="s">
+        <v>152</v>
+      </c>
+      <c r="D55" t="s">
         <v>25</v>
       </c>
-      <c r="C55" t="s">
+      <c r="E55" t="s">
         <v>123</v>
       </c>
-      <c r="D55" t="s">
-        <v>3</v>
-      </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
+        <v>3</v>
+      </c>
+      <c r="G55" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
+        <v>157</v>
+      </c>
+      <c r="C56" t="s">
+        <v>152</v>
+      </c>
+      <c r="D56" t="s">
         <v>26</v>
       </c>
-      <c r="C56" t="s">
-        <v>3</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
+        <v>3</v>
+      </c>
+      <c r="F56" t="s">
         <v>100</v>
       </c>
-      <c r="E56" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G56" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
+        <v>152</v>
+      </c>
+      <c r="D57" t="s">
         <v>27</v>
       </c>
-      <c r="C57" t="s">
+      <c r="E57" t="s">
         <v>127</v>
       </c>
-      <c r="D57" t="s">
+      <c r="F57" t="s">
         <v>122</v>
       </c>
-      <c r="E57" t="s">
+      <c r="G57" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B58" t="s">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B58">
+        <v>0.14624000000000001</v>
+      </c>
+      <c r="D58" t="s">
         <v>28</v>
       </c>
-      <c r="C58" t="s">
-        <v>3</v>
-      </c>
-      <c r="D58" t="s">
-        <v>3</v>
-      </c>
       <c r="E58" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F58" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
+        <v>157</v>
+      </c>
+      <c r="C59" t="s">
+        <v>152</v>
+      </c>
+      <c r="D59" t="s">
         <v>29</v>
       </c>
-      <c r="C59" t="s">
+      <c r="E59" t="s">
         <v>131</v>
       </c>
-      <c r="D59" t="s">
-        <v>3</v>
-      </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
+        <v>3</v>
+      </c>
+      <c r="G59" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
+        <v>152</v>
+      </c>
+      <c r="C60" t="s">
+        <v>152</v>
+      </c>
+      <c r="D60" t="s">
         <v>30</v>
       </c>
-      <c r="C60" t="s">
-        <v>3</v>
-      </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
+        <v>3</v>
+      </c>
+      <c r="F60" t="s">
         <v>135</v>
       </c>
-      <c r="E60" t="s">
+      <c r="G60" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B61" t="s">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>149</v>
+      </c>
+      <c r="D61" t="s">
         <v>31</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>145</v>
       </c>
+      <c r="F61" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C62">
+        <f>COUNTA(C34:C61)</f>
+        <v>16</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C63">
+        <f>C62-2</f>
+        <v>14</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>154</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="E1:G1"/>
   </mergeCells>
-  <conditionalFormatting sqref="I3:K30">
+  <conditionalFormatting sqref="K3:M30">
     <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="unk">
-      <formula>NOT(ISERROR(SEARCH("unk",I3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("unk",K3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L3:N30">
+  <conditionalFormatting sqref="N3:P30">
     <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="unk">
-      <formula>NOT(ISERROR(SEARCH("unk",L3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("unk",N3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:Q30 C32 G33 F32:F36">
+  <conditionalFormatting sqref="E3:S30 E32 I33 H32:H36">
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="unk">
-      <formula>NOT(ISERROR(SEARCH("unk",C3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("unk",E3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C34:E61">
+  <conditionalFormatting sqref="E34:G61">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="unk">
-      <formula>NOT(ISERROR(SEARCH("unk",C34)))</formula>
+      <formula>NOT(ISERROR(SEARCH("unk",E34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Axelrod FP.xlsx
+++ b/Axelrod FP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10412"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnpaulmintz/Dissertation/Analysis (git)/Still-Falls Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD806416-1C07-8846-B8D9-AC07FBF895A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A351839D-2949-694C-B645-3E2EDA6FE78F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6820" yWindow="580" windowWidth="28040" windowHeight="15980" xr2:uid="{C5A99E80-ED8F-0C4D-90B9-C385916291CE}"/>
+    <workbookView xWindow="760" yWindow="460" windowWidth="28040" windowHeight="15980" xr2:uid="{C5A99E80-ED8F-0C4D-90B9-C385916291CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="164">
   <si>
     <t>id</t>
   </si>
@@ -502,6 +502,21 @@
   </si>
   <si>
     <t>Fingerprint Difference</t>
+  </si>
+  <si>
+    <t>Same Choices (10)</t>
+  </si>
+  <si>
+    <t>H-AI</t>
+  </si>
+  <si>
+    <t>H-HAI</t>
+  </si>
+  <si>
+    <t>x (Static7ic14 - made up)</t>
+  </si>
+  <si>
+    <t>H-HAI (Static6lk32 - "NearAdaptive")</t>
   </si>
 </sst>
 </file>
@@ -517,7 +532,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -527,6 +542,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,16 +564,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -908,128 +930,126 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE244BE4-BC56-524C-9A32-34902536105F}">
-  <dimension ref="A1:S63"/>
+  <dimension ref="A1:T63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="23.1640625" customWidth="1"/>
-    <col min="5" max="5" width="25.1640625" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" customWidth="1"/>
-    <col min="7" max="7" width="59.33203125" customWidth="1"/>
-    <col min="8" max="8" width="54.6640625" customWidth="1"/>
-    <col min="9" max="9" width="56.33203125" customWidth="1"/>
-    <col min="10" max="10" width="60.1640625" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" customWidth="1"/>
+    <col min="6" max="6" width="25.1640625" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" customWidth="1"/>
+    <col min="8" max="8" width="59.33203125" customWidth="1"/>
+    <col min="9" max="9" width="54.6640625" customWidth="1"/>
+    <col min="10" max="10" width="56.33203125" customWidth="1"/>
+    <col min="11" max="11" width="60.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="E1" s="3" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="F1" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3" t="s">
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3" t="s">
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3" t="s">
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3" t="s">
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="D2" t="s">
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>32</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>34</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>1</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>32</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>34</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>1</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>32</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>34</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>1</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>32</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>82</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>83</v>
       </c>
-      <c r="G3" t="s">
-        <v>3</v>
-      </c>
       <c r="H3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
         <v>82</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>83</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>84</v>
       </c>
-      <c r="K3" t="s">
-        <v>3</v>
-      </c>
       <c r="L3" t="s">
         <v>3</v>
       </c>
@@ -1045,97 +1065,97 @@
       <c r="P3" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="Q3" t="s">
         <v>3</v>
       </c>
       <c r="R3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="S3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>85</v>
       </c>
-      <c r="F4" t="s">
-        <v>3</v>
-      </c>
       <c r="G4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
         <v>86</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>85</v>
       </c>
-      <c r="I4" t="s">
-        <v>3</v>
-      </c>
       <c r="J4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" t="s">
         <v>86</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>37</v>
       </c>
-      <c r="L4" t="s">
-        <v>3</v>
-      </c>
       <c r="M4" t="s">
         <v>3</v>
       </c>
       <c r="N4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" t="s">
         <v>37</v>
       </c>
-      <c r="O4" t="s">
-        <v>3</v>
-      </c>
       <c r="P4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="s">
         <v>48</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="T4" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>5</v>
       </c>
-      <c r="E5" t="s">
-        <v>3</v>
-      </c>
       <c r="F5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" t="s">
         <v>33</v>
       </c>
-      <c r="G5" t="s">
-        <v>3</v>
-      </c>
       <c r="H5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" t="s">
         <v>87</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>33</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>88</v>
       </c>
-      <c r="K5" t="s">
-        <v>3</v>
-      </c>
       <c r="L5" t="s">
         <v>3</v>
       </c>
@@ -1146,31 +1166,31 @@
         <v>3</v>
       </c>
       <c r="O5" t="s">
+        <v>3</v>
+      </c>
+      <c r="P5" t="s">
         <v>49</v>
       </c>
-      <c r="P5" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q5" s="1" t="s">
+      <c r="Q5" t="s">
+        <v>3</v>
+      </c>
+      <c r="R5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>6</v>
       </c>
-      <c r="E6" t="s">
-        <v>3</v>
-      </c>
       <c r="F6" t="s">
         <v>3</v>
       </c>
@@ -1178,11 +1198,11 @@
         <v>3</v>
       </c>
       <c r="H6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" t="s">
         <v>89</v>
       </c>
-      <c r="I6" t="s">
-        <v>3</v>
-      </c>
       <c r="J6" t="s">
         <v>3</v>
       </c>
@@ -1204,26 +1224,26 @@
       <c r="P6" t="s">
         <v>3</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="Q6" t="s">
         <v>3</v>
       </c>
       <c r="R6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="S6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T6" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>7</v>
       </c>
-      <c r="E7" t="s">
-        <v>3</v>
-      </c>
       <c r="F7" t="s">
         <v>3</v>
       </c>
@@ -1231,17 +1251,17 @@
         <v>3</v>
       </c>
       <c r="H7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" t="s">
         <v>90</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>91</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>92</v>
       </c>
-      <c r="K7" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" t="s">
         <v>3</v>
       </c>
@@ -1257,26 +1277,26 @@
       <c r="P7" t="s">
         <v>3</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="Q7" t="s">
+        <v>3</v>
+      </c>
+      <c r="R7" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="S7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="T7" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>8</v>
       </c>
-      <c r="E8" t="s">
-        <v>3</v>
-      </c>
       <c r="F8" t="s">
         <v>3</v>
       </c>
@@ -1284,17 +1304,17 @@
         <v>3</v>
       </c>
       <c r="H8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" t="s">
         <v>93</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>94</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>95</v>
       </c>
-      <c r="K8" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" t="s">
         <v>3</v>
       </c>
@@ -1310,79 +1330,79 @@
       <c r="P8" t="s">
         <v>3</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="Q8" t="s">
+        <v>3</v>
+      </c>
+      <c r="R8" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="S8" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="T8" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>9</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>96</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>97</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>98</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>96</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>97</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>98</v>
-      </c>
-      <c r="K9" t="s">
-        <v>38</v>
       </c>
       <c r="L9" t="s">
         <v>38</v>
       </c>
       <c r="M9" t="s">
+        <v>38</v>
+      </c>
+      <c r="N9" t="s">
         <v>39</v>
-      </c>
-      <c r="N9" t="s">
-        <v>38</v>
       </c>
       <c r="O9" t="s">
         <v>38</v>
       </c>
       <c r="P9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q9" t="s">
         <v>39</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="R9" s="1" t="s">
         <v>38</v>
       </c>
       <c r="S9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T9" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>10</v>
       </c>
-      <c r="E10" t="s">
-        <v>3</v>
-      </c>
       <c r="F10" t="s">
         <v>3</v>
       </c>
@@ -1416,97 +1436,97 @@
       <c r="P10" t="s">
         <v>3</v>
       </c>
-      <c r="Q10" s="1" t="s">
+      <c r="Q10" t="s">
+        <v>3</v>
+      </c>
+      <c r="R10" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="R10" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="S10" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>11</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>99</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>100</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>101</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>99</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>100</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>101</v>
-      </c>
-      <c r="K11" t="s">
-        <v>40</v>
       </c>
       <c r="L11" t="s">
         <v>40</v>
       </c>
       <c r="M11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N11" t="s">
         <v>41</v>
-      </c>
-      <c r="N11" t="s">
-        <v>40</v>
       </c>
       <c r="O11" t="s">
         <v>40</v>
       </c>
       <c r="P11" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q11" t="s">
         <v>41</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="R11" s="1" t="s">
         <v>40</v>
       </c>
       <c r="S11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T11" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>12</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>102</v>
       </c>
-      <c r="F12" t="s">
-        <v>3</v>
-      </c>
       <c r="G12" t="s">
         <v>3</v>
       </c>
       <c r="H12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" t="s">
         <v>102</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>103</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>89</v>
       </c>
-      <c r="K12" t="s">
-        <v>3</v>
-      </c>
       <c r="L12" t="s">
         <v>3</v>
       </c>
@@ -1514,51 +1534,51 @@
         <v>3</v>
       </c>
       <c r="N12" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" t="s">
         <v>50</v>
       </c>
-      <c r="O12" t="s">
-        <v>3</v>
-      </c>
       <c r="P12" t="s">
         <v>3</v>
       </c>
-      <c r="Q12" s="1" t="s">
+      <c r="Q12" t="s">
+        <v>3</v>
+      </c>
+      <c r="R12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="R12" s="1" t="s">
+      <c r="S12" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="S12" s="1" t="s">
+      <c r="T12" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>13</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>104</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>105</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>106</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>104</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>105</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>106</v>
-      </c>
-      <c r="K13" t="s">
-        <v>42</v>
       </c>
       <c r="L13" t="s">
         <v>42</v>
@@ -1575,7 +1595,7 @@
       <c r="P13" t="s">
         <v>42</v>
       </c>
-      <c r="Q13" s="1" t="s">
+      <c r="Q13" t="s">
         <v>42</v>
       </c>
       <c r="R13" s="1" t="s">
@@ -1584,35 +1604,35 @@
       <c r="S13" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>14</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>107</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>108</v>
       </c>
-      <c r="G14" t="s">
-        <v>3</v>
-      </c>
       <c r="H14" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" t="s">
         <v>107</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>108</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>109</v>
       </c>
-      <c r="K14" t="s">
-        <v>3</v>
-      </c>
       <c r="L14" t="s">
         <v>3</v>
       </c>
@@ -1620,158 +1640,158 @@
         <v>3</v>
       </c>
       <c r="N14" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" t="s">
         <v>51</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>52</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>53</v>
       </c>
-      <c r="Q14" s="1" t="s">
+      <c r="R14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="R14" s="1" t="s">
+      <c r="S14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="S14" s="1" t="s">
+      <c r="T14" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>15</v>
       </c>
-      <c r="E15" t="s">
-        <v>3</v>
-      </c>
       <c r="F15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" t="s">
         <v>97</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>111</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>110</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>97</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>111</v>
       </c>
-      <c r="K15" t="s">
-        <v>3</v>
-      </c>
       <c r="L15" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" t="s">
         <v>38</v>
       </c>
-      <c r="M15" t="s">
-        <v>3</v>
-      </c>
       <c r="N15" t="s">
         <v>3</v>
       </c>
       <c r="O15" t="s">
+        <v>3</v>
+      </c>
+      <c r="P15" t="s">
         <v>38</v>
       </c>
-      <c r="P15" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q15" s="1" t="s">
+      <c r="Q15" t="s">
+        <v>3</v>
+      </c>
+      <c r="R15" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="R15" s="1" t="s">
+      <c r="S15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="S15" s="1" t="s">
+      <c r="T15" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>16</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>104</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>112</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>106</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>104</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>112</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>106</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>42</v>
       </c>
-      <c r="L16" t="s">
-        <v>3</v>
-      </c>
       <c r="M16" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="N16" t="s">
         <v>42</v>
       </c>
       <c r="O16" t="s">
+        <v>42</v>
+      </c>
+      <c r="P16" t="s">
         <v>54</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>42</v>
       </c>
-      <c r="Q16" s="1" t="s">
+      <c r="R16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="R16" s="1" t="s">
+      <c r="S16" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S16" s="1" t="s">
+      <c r="T16" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>17</v>
       </c>
-      <c r="E17" t="s">
-        <v>3</v>
-      </c>
       <c r="F17" t="s">
         <v>3</v>
       </c>
       <c r="G17" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" t="s">
         <v>111</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>113</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>23</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>111</v>
       </c>
-      <c r="K17" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" t="s">
         <v>3</v>
       </c>
@@ -1782,243 +1802,243 @@
         <v>3</v>
       </c>
       <c r="O17" t="s">
+        <v>3</v>
+      </c>
+      <c r="P17" t="s">
         <v>50</v>
       </c>
-      <c r="P17" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q17" s="1" t="s">
+      <c r="Q17" t="s">
+        <v>3</v>
+      </c>
+      <c r="R17" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="R17" s="1" t="s">
+      <c r="S17" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="S17" s="1" t="s">
+      <c r="T17" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>18</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>96</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>97</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>98</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>96</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>97</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>98</v>
-      </c>
-      <c r="K18" t="s">
-        <v>38</v>
       </c>
       <c r="L18" t="s">
         <v>38</v>
       </c>
       <c r="M18" t="s">
+        <v>38</v>
+      </c>
+      <c r="N18" t="s">
         <v>39</v>
-      </c>
-      <c r="N18" t="s">
-        <v>38</v>
       </c>
       <c r="O18" t="s">
         <v>38</v>
       </c>
       <c r="P18" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q18" t="s">
         <v>39</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="R18" s="1" t="s">
         <v>38</v>
       </c>
       <c r="S18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T18" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>19</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>96</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>97</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>98</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>96</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>97</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>98</v>
-      </c>
-      <c r="K19" t="s">
-        <v>38</v>
       </c>
       <c r="L19" t="s">
         <v>38</v>
       </c>
       <c r="M19" t="s">
+        <v>38</v>
+      </c>
+      <c r="N19" t="s">
         <v>39</v>
-      </c>
-      <c r="N19" t="s">
-        <v>38</v>
       </c>
       <c r="O19" t="s">
         <v>38</v>
       </c>
       <c r="P19" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q19" t="s">
         <v>39</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="R19" s="1" t="s">
         <v>38</v>
       </c>
       <c r="S19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T19" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>20</v>
       </c>
-      <c r="E20" t="s">
-        <v>3</v>
-      </c>
       <c r="F20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" t="s">
         <v>114</v>
       </c>
-      <c r="G20" t="s">
-        <v>3</v>
-      </c>
       <c r="H20" t="s">
         <v>3</v>
       </c>
       <c r="I20" t="s">
+        <v>3</v>
+      </c>
+      <c r="J20" t="s">
         <v>114</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>115</v>
       </c>
-      <c r="K20" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" t="s">
         <v>43</v>
       </c>
-      <c r="M20" t="s">
-        <v>3</v>
-      </c>
       <c r="N20" t="s">
         <v>3</v>
       </c>
       <c r="O20" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" t="s">
         <v>43</v>
       </c>
-      <c r="P20" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q20" s="1" t="s">
+      <c r="Q20" t="s">
         <v>3</v>
       </c>
       <c r="R20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S20" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="S20" s="1" t="s">
+      <c r="T20" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>21</v>
       </c>
-      <c r="E21" t="s">
-        <v>3</v>
-      </c>
       <c r="F21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" t="s">
         <v>116</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>117</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>110</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>116</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>117</v>
       </c>
-      <c r="K21" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" t="s">
         <v>44</v>
       </c>
-      <c r="M21" t="s">
+      <c r="N21" t="s">
         <v>45</v>
       </c>
-      <c r="N21" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" t="s">
         <v>44</v>
       </c>
-      <c r="P21" t="s">
+      <c r="Q21" t="s">
         <v>45</v>
       </c>
-      <c r="Q21" s="1" t="s">
+      <c r="R21" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="R21" s="1" t="s">
+      <c r="S21" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="S21" s="1" t="s">
+      <c r="T21" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>22</v>
       </c>
-      <c r="E22" t="s">
-        <v>3</v>
-      </c>
       <c r="F22" t="s">
         <v>3</v>
       </c>
@@ -2026,17 +2046,17 @@
         <v>3</v>
       </c>
       <c r="H22" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" t="s">
         <v>118</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>119</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>120</v>
       </c>
-      <c r="K22" t="s">
-        <v>3</v>
-      </c>
       <c r="L22" t="s">
         <v>3</v>
       </c>
@@ -2052,41 +2072,41 @@
       <c r="P22" t="s">
         <v>3</v>
       </c>
-      <c r="Q22" s="1" t="s">
+      <c r="Q22" t="s">
+        <v>3</v>
+      </c>
+      <c r="R22" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="R22" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="S22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T22" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>24</v>
       </c>
-      <c r="E23" t="s">
-        <v>3</v>
-      </c>
       <c r="F23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" t="s">
         <v>122</v>
       </c>
-      <c r="G23" t="s">
-        <v>3</v>
-      </c>
       <c r="H23" t="s">
+        <v>3</v>
+      </c>
+      <c r="I23" t="s">
         <v>121</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>122</v>
       </c>
-      <c r="J23" t="s">
-        <v>3</v>
-      </c>
       <c r="K23" t="s">
         <v>3</v>
       </c>
@@ -2097,52 +2117,52 @@
         <v>3</v>
       </c>
       <c r="N23" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" t="s">
         <v>50</v>
       </c>
-      <c r="O23" t="s">
-        <v>3</v>
-      </c>
       <c r="P23" t="s">
         <v>3</v>
       </c>
-      <c r="Q23" s="1" t="s">
+      <c r="Q23" t="s">
+        <v>3</v>
+      </c>
+      <c r="R23" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="R23" s="1" t="s">
+      <c r="S23" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="S23" s="1" t="s">
+      <c r="T23" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>25</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>123</v>
       </c>
-      <c r="F24" t="s">
-        <v>3</v>
-      </c>
       <c r="G24" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" t="s">
         <v>125</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>123</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>124</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>125</v>
       </c>
-      <c r="K24" t="s">
-        <v>3</v>
-      </c>
       <c r="L24" t="s">
         <v>3</v>
       </c>
@@ -2150,140 +2170,140 @@
         <v>3</v>
       </c>
       <c r="N24" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" t="s">
         <v>55</v>
       </c>
-      <c r="O24" t="s">
-        <v>3</v>
-      </c>
       <c r="P24" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q24" t="s">
         <v>55</v>
       </c>
-      <c r="Q24" s="1" t="s">
+      <c r="R24" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="R24" s="1" t="s">
+      <c r="S24" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="S24" s="1" t="s">
+      <c r="T24" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>26</v>
       </c>
-      <c r="E25" t="s">
-        <v>3</v>
-      </c>
       <c r="F25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" t="s">
         <v>100</v>
       </c>
-      <c r="G25" t="s">
-        <v>3</v>
-      </c>
       <c r="H25" t="s">
+        <v>3</v>
+      </c>
+      <c r="I25" t="s">
         <v>126</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>100</v>
       </c>
-      <c r="J25" t="s">
-        <v>3</v>
-      </c>
       <c r="K25" t="s">
         <v>3</v>
       </c>
       <c r="L25" t="s">
+        <v>3</v>
+      </c>
+      <c r="M25" t="s">
         <v>40</v>
       </c>
-      <c r="M25" t="s">
-        <v>3</v>
-      </c>
       <c r="N25" t="s">
         <v>3</v>
       </c>
       <c r="O25" t="s">
+        <v>3</v>
+      </c>
+      <c r="P25" t="s">
         <v>40</v>
       </c>
-      <c r="P25" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q25" s="1" t="s">
+      <c r="Q25" t="s">
+        <v>3</v>
+      </c>
+      <c r="R25" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="R25" s="1" t="s">
+      <c r="S25" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="S25" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>27</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>127</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>122</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>106</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>127</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>122</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>106</v>
       </c>
-      <c r="K26" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" t="s">
         <v>3</v>
       </c>
       <c r="M26" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
         <v>42</v>
       </c>
-      <c r="N26" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" t="s">
         <v>3</v>
       </c>
       <c r="P26" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q26" t="s">
         <v>42</v>
       </c>
-      <c r="Q26" s="1" t="s">
+      <c r="R26" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="R26" s="1" t="s">
+      <c r="S26" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="S26" s="1" t="s">
+      <c r="T26" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>28</v>
       </c>
-      <c r="E27" t="s">
-        <v>3</v>
-      </c>
       <c r="F27" t="s">
         <v>3</v>
       </c>
@@ -2291,17 +2311,17 @@
         <v>3</v>
       </c>
       <c r="H27" t="s">
+        <v>3</v>
+      </c>
+      <c r="I27" t="s">
         <v>128</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>129</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>130</v>
       </c>
-      <c r="K27" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" t="s">
         <v>3</v>
       </c>
@@ -2317,44 +2337,44 @@
       <c r="P27" t="s">
         <v>3</v>
       </c>
-      <c r="Q27" s="1" t="s">
+      <c r="Q27" t="s">
         <v>3</v>
       </c>
       <c r="R27" s="1" t="s">
         <v>3</v>
       </c>
       <c r="S27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T27" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>29</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>131</v>
       </c>
-      <c r="F28" t="s">
-        <v>3</v>
-      </c>
       <c r="G28" t="s">
+        <v>3</v>
+      </c>
+      <c r="H28" t="s">
         <v>133</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>131</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>132</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>133</v>
       </c>
-      <c r="K28" t="s">
-        <v>3</v>
-      </c>
       <c r="L28" t="s">
         <v>3</v>
       </c>
@@ -2370,96 +2390,96 @@
       <c r="P28" t="s">
         <v>3</v>
       </c>
-      <c r="Q28" s="1" t="s">
+      <c r="Q28" t="s">
+        <v>3</v>
+      </c>
+      <c r="R28" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="R28" s="1" t="s">
+      <c r="S28" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="S28" s="1" t="s">
+      <c r="T28" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>30</v>
       </c>
-      <c r="E29" t="s">
-        <v>3</v>
-      </c>
       <c r="F29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" t="s">
         <v>135</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>136</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>134</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>135</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>136</v>
       </c>
-      <c r="K29" t="s">
-        <v>3</v>
-      </c>
       <c r="L29" t="s">
         <v>3</v>
       </c>
       <c r="M29" t="s">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
         <v>46</v>
       </c>
-      <c r="N29" t="s">
-        <v>3</v>
-      </c>
       <c r="O29" t="s">
+        <v>3</v>
+      </c>
+      <c r="P29" t="s">
         <v>56</v>
       </c>
-      <c r="P29" t="s">
+      <c r="Q29" t="s">
         <v>46</v>
       </c>
-      <c r="Q29" s="1" t="s">
+      <c r="R29" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="R29" s="1" t="s">
+      <c r="S29" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="S29" s="1" t="s">
+      <c r="T29" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>31</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>104</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>105</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>106</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>104</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>105</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>106</v>
-      </c>
-      <c r="K30" t="s">
-        <v>42</v>
       </c>
       <c r="L30" t="s">
         <v>42</v>
@@ -2476,7 +2496,7 @@
       <c r="P30" t="s">
         <v>42</v>
       </c>
-      <c r="Q30" s="1" t="s">
+      <c r="Q30" t="s">
         <v>42</v>
       </c>
       <c r="R30" s="1" t="s">
@@ -2485,18 +2505,21 @@
       <c r="S30" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="E32" s="3" t="s">
+      <c r="T30" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="F32" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" t="s">
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>147</v>
       </c>
@@ -2507,71 +2530,74 @@
         <v>158</v>
       </c>
       <c r="D33" t="s">
+        <v>159</v>
+      </c>
+      <c r="E33" t="s">
         <v>0</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>1</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>32</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>34</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>140</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>152</v>
       </c>
       <c r="C34" t="s">
         <v>152</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>2</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>82</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>83</v>
       </c>
-      <c r="G34" t="s">
-        <v>3</v>
-      </c>
       <c r="H34" t="s">
+        <v>3</v>
+      </c>
+      <c r="I34" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>152</v>
       </c>
       <c r="C35" t="s">
         <v>152</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>4</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>85</v>
       </c>
-      <c r="F35" t="s">
-        <v>3</v>
-      </c>
       <c r="G35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H35" t="s">
         <v>86</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>152</v>
       </c>
@@ -2579,84 +2605,90 @@
         <v>152</v>
       </c>
       <c r="D36" t="s">
+        <v>163</v>
+      </c>
+      <c r="E36" t="s">
         <v>5</v>
       </c>
-      <c r="E36" t="s">
-        <v>3</v>
-      </c>
       <c r="F36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G36" t="s">
         <v>33</v>
       </c>
-      <c r="G36" t="s">
-        <v>3</v>
-      </c>
       <c r="H36" t="s">
+        <v>3</v>
+      </c>
+      <c r="I36" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>148</v>
       </c>
       <c r="B37" t="s">
         <v>152</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E37" t="s">
         <v>6</v>
       </c>
-      <c r="E37" t="s">
-        <v>3</v>
-      </c>
       <c r="F37" t="s">
         <v>3</v>
       </c>
       <c r="G37" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B38">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>7</v>
       </c>
-      <c r="E38" t="s">
-        <v>3</v>
-      </c>
       <c r="F38" t="s">
         <v>3</v>
       </c>
       <c r="G38" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>152</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>8</v>
       </c>
-      <c r="E39" t="s">
-        <v>3</v>
-      </c>
       <c r="F39" t="s">
         <v>3</v>
       </c>
       <c r="G39" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>150</v>
       </c>
       <c r="D40" t="s">
+        <v>152</v>
+      </c>
+      <c r="E40" t="s">
         <v>9</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>146</v>
@@ -2664,73 +2696,76 @@
       <c r="G40" s="2" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H40" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>152</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>10</v>
       </c>
-      <c r="E41" t="s">
-        <v>3</v>
-      </c>
       <c r="F41" t="s">
         <v>3</v>
       </c>
       <c r="G41" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>156</v>
       </c>
       <c r="C42" t="s">
         <v>152</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>11</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>99</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>100</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>152</v>
       </c>
       <c r="C43" t="s">
         <v>152</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>12</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>102</v>
       </c>
-      <c r="F43" t="s">
-        <v>3</v>
-      </c>
       <c r="G43" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H43" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>148</v>
       </c>
       <c r="D44" t="s">
+        <v>152</v>
+      </c>
+      <c r="E44" t="s">
         <v>13</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>145</v>
@@ -2738,48 +2773,51 @@
       <c r="G44" s="2" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H44" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>152</v>
       </c>
       <c r="C45" t="s">
         <v>152</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>14</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>107</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>108</v>
       </c>
-      <c r="G45" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H45" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>152</v>
       </c>
       <c r="C46" t="s">
         <v>152</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>15</v>
       </c>
-      <c r="E46" t="s">
-        <v>3</v>
-      </c>
       <c r="F46" t="s">
+        <v>3</v>
+      </c>
+      <c r="G46" t="s">
         <v>146</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>151</v>
       </c>
@@ -2790,44 +2828,47 @@
         <v>152</v>
       </c>
       <c r="D47" t="s">
+        <v>161</v>
+      </c>
+      <c r="E47" t="s">
         <v>16</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>145</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>112</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>152</v>
       </c>
       <c r="C48" t="s">
         <v>152</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>17</v>
       </c>
-      <c r="E48" t="s">
-        <v>3</v>
-      </c>
       <c r="F48" t="s">
         <v>3</v>
       </c>
       <c r="G48" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D49" t="s">
+        <v>152</v>
+      </c>
+      <c r="E49" t="s">
         <v>18</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>146</v>
@@ -2835,16 +2876,19 @@
       <c r="G49" s="2" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H49" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>148</v>
       </c>
       <c r="D50" t="s">
+        <v>152</v>
+      </c>
+      <c r="E50" t="s">
         <v>19</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>146</v>
@@ -2852,8 +2896,11 @@
       <c r="G50" s="2" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H50" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>152</v>
       </c>
@@ -2861,56 +2908,59 @@
         <v>152</v>
       </c>
       <c r="D51" t="s">
+        <v>160</v>
+      </c>
+      <c r="E51" t="s">
         <v>20</v>
       </c>
-      <c r="E51" t="s">
-        <v>3</v>
-      </c>
       <c r="F51" t="s">
+        <v>3</v>
+      </c>
+      <c r="G51" t="s">
         <v>114</v>
       </c>
-      <c r="G51" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H51" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B52">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="C52" t="s">
         <v>152</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>21</v>
       </c>
-      <c r="E52" t="s">
-        <v>3</v>
-      </c>
       <c r="F52" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" t="s">
         <v>116</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>152</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>22</v>
       </c>
-      <c r="E53" t="s">
-        <v>3</v>
-      </c>
       <c r="F53" t="s">
         <v>3</v>
       </c>
       <c r="G53" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H53" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>148</v>
       </c>
@@ -2920,142 +2970,142 @@
       <c r="C54" t="s">
         <v>152</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>24</v>
       </c>
-      <c r="E54" t="s">
-        <v>3</v>
-      </c>
       <c r="F54" t="s">
+        <v>3</v>
+      </c>
+      <c r="G54" t="s">
         <v>122</v>
       </c>
-      <c r="G54" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H54" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>152</v>
       </c>
       <c r="C55" t="s">
         <v>152</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>25</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>123</v>
       </c>
-      <c r="F55" t="s">
-        <v>3</v>
-      </c>
       <c r="G55" t="s">
+        <v>3</v>
+      </c>
+      <c r="H55" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>157</v>
       </c>
       <c r="C56" t="s">
         <v>152</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>26</v>
       </c>
-      <c r="E56" t="s">
-        <v>3</v>
-      </c>
       <c r="F56" t="s">
+        <v>3</v>
+      </c>
+      <c r="G56" t="s">
         <v>100</v>
       </c>
-      <c r="G56" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H56" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>152</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>27</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>127</v>
       </c>
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>122</v>
       </c>
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B58">
         <v>0.14624000000000001</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>28</v>
       </c>
-      <c r="E58" t="s">
-        <v>3</v>
-      </c>
       <c r="F58" t="s">
         <v>3</v>
       </c>
       <c r="G58" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>157</v>
       </c>
       <c r="C59" t="s">
         <v>152</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>29</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>131</v>
       </c>
-      <c r="F59" t="s">
-        <v>3</v>
-      </c>
       <c r="G59" t="s">
+        <v>3</v>
+      </c>
+      <c r="H59" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>152</v>
       </c>
       <c r="C60" t="s">
         <v>152</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
         <v>30</v>
       </c>
-      <c r="E60" t="s">
-        <v>3</v>
-      </c>
       <c r="F60" t="s">
+        <v>3</v>
+      </c>
+      <c r="G60" t="s">
         <v>135</v>
       </c>
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>149</v>
       </c>
       <c r="D61" t="s">
+        <v>152</v>
+      </c>
+      <c r="E61" t="s">
         <v>31</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>145</v>
@@ -3063,52 +3113,55 @@
       <c r="G61" s="2" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H61" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C62">
         <f>COUNTA(C34:C61)</f>
         <v>16</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="E62" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C63">
         <f>C62-2</f>
         <v>14</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="E63" s="3" t="s">
         <v>154</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="F1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="K3:M30">
+  <conditionalFormatting sqref="L3:N30">
     <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="unk">
-      <formula>NOT(ISERROR(SEARCH("unk",K3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("unk",L3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N3:P30">
+  <conditionalFormatting sqref="O3:Q30">
     <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="unk">
-      <formula>NOT(ISERROR(SEARCH("unk",N3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("unk",O3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:S30 E32 I33 H32:H36">
+  <conditionalFormatting sqref="F3:T30 F32 J33 I32:I36">
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="unk">
-      <formula>NOT(ISERROR(SEARCH("unk",E3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("unk",F3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E34:G61">
+  <conditionalFormatting sqref="F34:H61">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="unk">
-      <formula>NOT(ISERROR(SEARCH("unk",E34)))</formula>
+      <formula>NOT(ISERROR(SEARCH("unk",F34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Axelrod FP.xlsx
+++ b/Axelrod FP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnpaulmintz/Dissertation/Analysis (git)/Still-Falls Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A351839D-2949-694C-B645-3E2EDA6FE78F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9AE9554-5C9D-3E4D-8D73-3D742B3CA54E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="460" windowWidth="28040" windowHeight="15980" xr2:uid="{C5A99E80-ED8F-0C4D-90B9-C385916291CE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="182">
   <si>
     <t>id</t>
   </si>
@@ -517,13 +517,77 @@
   </si>
   <si>
     <t>H-HAI (Static6lk32 - "NearAdaptive")</t>
+  </si>
+  <si>
+    <t>Static6lk32**</t>
+  </si>
+  <si>
+    <t>Static7ic14***</t>
+  </si>
+  <si>
+    <t>Staticp8v34****</t>
+  </si>
+  <si>
+    <t>SolutionB5/Suspicious Tit For Tat/Staticp8v34****(1)</t>
+  </si>
+  <si>
+    <t>Forgetful Grudger/Forgiver/Grudger/Limited Retaliate: 0.1, 20/Limited Retaliate 2: 0.08, 15/Limited Retaliate 3: 0.05, 20/Punisher/Retaliate: 0.1/Retaliate 2: 0.08/Retaliate 3: 0.05/Tricky Level Punisher(1)</t>
+  </si>
+  <si>
+    <t>Grudger*****</t>
+  </si>
+  <si>
+    <t>unknown could go either way</t>
+  </si>
+  <si>
+    <t>multiple matches could go either way?</t>
+  </si>
+  <si>
+    <t>*****</t>
+  </si>
+  <si>
+    <t>****</t>
+  </si>
+  <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t>**</t>
+  </si>
+  <si>
+    <t>AllD or AllC was a subset of many strategies.  The researcher assumed the simplest, which is AllD or AllC</t>
+  </si>
+  <si>
+    <t>mem</t>
+  </si>
+  <si>
+    <t>memory is LEAST number it could be</t>
+  </si>
+  <si>
+    <t>Ratio</t>
+  </si>
+  <si>
+    <t>^</t>
+  </si>
+  <si>
+    <t>^2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -532,7 +596,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -551,6 +615,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -561,10 +637,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -575,11 +652,80 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -930,10 +1076,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE244BE4-BC56-524C-9A32-34902536105F}">
-  <dimension ref="A1:T63"/>
+  <dimension ref="A1:W78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="J4" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -941,60 +1087,56 @@
     <col min="1" max="3" width="23.1640625" customWidth="1"/>
     <col min="4" max="4" width="25.33203125" customWidth="1"/>
     <col min="6" max="6" width="25.1640625" customWidth="1"/>
-    <col min="7" max="7" width="20.33203125" customWidth="1"/>
-    <col min="8" max="8" width="59.33203125" customWidth="1"/>
-    <col min="9" max="9" width="54.6640625" customWidth="1"/>
-    <col min="10" max="10" width="56.33203125" customWidth="1"/>
-    <col min="11" max="11" width="60.1640625" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" customWidth="1"/>
+    <col min="9" max="9" width="5.5" style="4" customWidth="1"/>
+    <col min="10" max="10" width="59.33203125" customWidth="1"/>
+    <col min="11" max="11" width="6" style="4" customWidth="1"/>
+    <col min="12" max="12" width="54.6640625" customWidth="1"/>
+    <col min="13" max="13" width="56.33203125" customWidth="1"/>
+    <col min="14" max="14" width="60.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="F1" s="4" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="F1" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4" t="s">
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="L1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="E2" t="s">
         <v>0</v>
       </c>
       <c r="F2" t="s">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>32</v>
       </c>
-      <c r="H2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" t="s">
-        <v>1</v>
-      </c>
       <c r="J2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" t="s">
         <v>34</v>
       </c>
       <c r="L2" t="s">
@@ -1015,17 +1157,26 @@
       <c r="Q2" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="R2" t="s">
         <v>1</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="S2" t="s">
         <v>32</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="T2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1035,30 +1186,21 @@
       <c r="F3" t="s">
         <v>82</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>83</v>
       </c>
-      <c r="H3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" t="s">
         <v>82</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" t="s">
         <v>83</v>
       </c>
-      <c r="K3" t="s">
+      <c r="N3" t="s">
         <v>84</v>
       </c>
-      <c r="L3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" t="s">
-        <v>3</v>
-      </c>
       <c r="O3" t="s">
         <v>3</v>
       </c>
@@ -1068,17 +1210,26 @@
       <c r="Q3" t="s">
         <v>3</v>
       </c>
-      <c r="R3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S3" s="1" t="s">
+      <c r="R3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="T3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1088,29 +1239,20 @@
       <c r="F4" t="s">
         <v>85</v>
       </c>
-      <c r="G4" t="s">
-        <v>3</v>
-      </c>
       <c r="H4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" t="s">
         <v>86</v>
       </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>85</v>
       </c>
-      <c r="J4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
         <v>86</v>
-      </c>
-      <c r="L4" t="s">
-        <v>37</v>
-      </c>
-      <c r="M4" t="s">
-        <v>3</v>
-      </c>
-      <c r="N4" t="s">
-        <v>3</v>
       </c>
       <c r="O4" t="s">
         <v>37</v>
@@ -1119,19 +1261,28 @@
         <v>3</v>
       </c>
       <c r="Q4" t="s">
+        <v>3</v>
+      </c>
+      <c r="R4" t="s">
+        <v>37</v>
+      </c>
+      <c r="S4" t="s">
+        <v>3</v>
+      </c>
+      <c r="T4" t="s">
         <v>48</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="U4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="V4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="W4" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1141,50 +1292,50 @@
       <c r="F5" t="s">
         <v>3</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>33</v>
       </c>
-      <c r="H5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" t="s">
         <v>87</v>
       </c>
-      <c r="J5" t="s">
+      <c r="M5" t="s">
         <v>33</v>
       </c>
-      <c r="K5" t="s">
+      <c r="N5" t="s">
         <v>88</v>
       </c>
-      <c r="L5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M5" t="s">
-        <v>3</v>
-      </c>
-      <c r="N5" t="s">
-        <v>3</v>
-      </c>
       <c r="O5" t="s">
         <v>3</v>
       </c>
       <c r="P5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>3</v>
+      </c>
+      <c r="R5" t="s">
+        <v>3</v>
+      </c>
+      <c r="S5" t="s">
         <v>49</v>
       </c>
-      <c r="Q5" t="s">
-        <v>3</v>
-      </c>
-      <c r="R5" s="1" t="s">
+      <c r="T5" t="s">
+        <v>3</v>
+      </c>
+      <c r="U5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="V5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="W5" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1194,24 +1345,15 @@
       <c r="F6" t="s">
         <v>3</v>
       </c>
-      <c r="G6" t="s">
-        <v>3</v>
-      </c>
       <c r="H6" t="s">
         <v>3</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L6" t="s">
         <v>89</v>
       </c>
-      <c r="J6" t="s">
-        <v>3</v>
-      </c>
-      <c r="K6" t="s">
-        <v>3</v>
-      </c>
-      <c r="L6" t="s">
-        <v>3</v>
-      </c>
       <c r="M6" t="s">
         <v>3</v>
       </c>
@@ -1227,17 +1369,26 @@
       <c r="Q6" t="s">
         <v>3</v>
       </c>
-      <c r="R6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T6" s="1" t="s">
+      <c r="R6" t="s">
+        <v>3</v>
+      </c>
+      <c r="S6" t="s">
+        <v>3</v>
+      </c>
+      <c r="T6" t="s">
+        <v>3</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W6" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1247,30 +1398,21 @@
       <c r="F7" t="s">
         <v>3</v>
       </c>
-      <c r="G7" t="s">
-        <v>3</v>
-      </c>
       <c r="H7" t="s">
         <v>3</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" t="s">
         <v>90</v>
       </c>
-      <c r="J7" t="s">
+      <c r="M7" t="s">
         <v>91</v>
       </c>
-      <c r="K7" t="s">
+      <c r="N7" t="s">
         <v>92</v>
       </c>
-      <c r="L7" t="s">
-        <v>3</v>
-      </c>
-      <c r="M7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N7" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" t="s">
         <v>3</v>
       </c>
@@ -1280,17 +1422,26 @@
       <c r="Q7" t="s">
         <v>3</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="R7" t="s">
+        <v>3</v>
+      </c>
+      <c r="S7" t="s">
+        <v>3</v>
+      </c>
+      <c r="T7" t="s">
+        <v>3</v>
+      </c>
+      <c r="U7" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="V7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="W7" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1300,30 +1451,21 @@
       <c r="F8" t="s">
         <v>3</v>
       </c>
-      <c r="G8" t="s">
-        <v>3</v>
-      </c>
       <c r="H8" t="s">
         <v>3</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" t="s">
         <v>93</v>
       </c>
-      <c r="J8" t="s">
+      <c r="M8" t="s">
         <v>94</v>
       </c>
-      <c r="K8" t="s">
+      <c r="N8" t="s">
         <v>95</v>
       </c>
-      <c r="L8" t="s">
-        <v>3</v>
-      </c>
-      <c r="M8" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" t="s">
-        <v>3</v>
-      </c>
       <c r="O8" t="s">
         <v>3</v>
       </c>
@@ -1333,17 +1475,26 @@
       <c r="Q8" t="s">
         <v>3</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="R8" t="s">
+        <v>3</v>
+      </c>
+      <c r="S8" t="s">
+        <v>3</v>
+      </c>
+      <c r="T8" t="s">
+        <v>3</v>
+      </c>
+      <c r="U8" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="V8" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="T8" s="1" t="s">
+      <c r="W8" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1353,29 +1504,20 @@
       <c r="F9" t="s">
         <v>96</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>97</v>
       </c>
-      <c r="H9" t="s">
+      <c r="J9" t="s">
         <v>98</v>
       </c>
-      <c r="I9" t="s">
+      <c r="L9" t="s">
         <v>96</v>
       </c>
-      <c r="J9" t="s">
+      <c r="M9" t="s">
         <v>97</v>
       </c>
-      <c r="K9" t="s">
+      <c r="N9" t="s">
         <v>98</v>
-      </c>
-      <c r="L9" t="s">
-        <v>38</v>
-      </c>
-      <c r="M9" t="s">
-        <v>38</v>
-      </c>
-      <c r="N9" t="s">
-        <v>39</v>
       </c>
       <c r="O9" t="s">
         <v>38</v>
@@ -1386,17 +1528,26 @@
       <c r="Q9" t="s">
         <v>39</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="R9" t="s">
         <v>38</v>
       </c>
-      <c r="S9" s="1" t="s">
+      <c r="S9" t="s">
         <v>38</v>
       </c>
-      <c r="T9" s="1" t="s">
+      <c r="T9" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1406,21 +1557,12 @@
       <c r="F10" t="s">
         <v>3</v>
       </c>
-      <c r="G10" t="s">
-        <v>3</v>
-      </c>
       <c r="H10" t="s">
         <v>3</v>
       </c>
-      <c r="I10" t="s">
-        <v>3</v>
-      </c>
       <c r="J10" t="s">
         <v>3</v>
       </c>
-      <c r="K10" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" t="s">
         <v>3</v>
       </c>
@@ -1439,17 +1581,26 @@
       <c r="Q10" t="s">
         <v>3</v>
       </c>
-      <c r="R10" s="1" t="s">
+      <c r="R10" t="s">
+        <v>3</v>
+      </c>
+      <c r="S10" t="s">
+        <v>3</v>
+      </c>
+      <c r="T10" t="s">
+        <v>3</v>
+      </c>
+      <c r="U10" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="S10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1459,29 +1610,20 @@
       <c r="F11" t="s">
         <v>99</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>100</v>
       </c>
-      <c r="H11" t="s">
+      <c r="J11" t="s">
         <v>101</v>
       </c>
-      <c r="I11" t="s">
+      <c r="L11" t="s">
         <v>99</v>
       </c>
-      <c r="J11" t="s">
+      <c r="M11" t="s">
         <v>100</v>
       </c>
-      <c r="K11" t="s">
+      <c r="N11" t="s">
         <v>101</v>
-      </c>
-      <c r="L11" t="s">
-        <v>40</v>
-      </c>
-      <c r="M11" t="s">
-        <v>40</v>
-      </c>
-      <c r="N11" t="s">
-        <v>41</v>
       </c>
       <c r="O11" t="s">
         <v>40</v>
@@ -1492,17 +1634,26 @@
       <c r="Q11" t="s">
         <v>41</v>
       </c>
-      <c r="R11" s="1" t="s">
+      <c r="R11" t="s">
         <v>40</v>
       </c>
-      <c r="S11" s="1" t="s">
+      <c r="S11" t="s">
         <v>40</v>
       </c>
-      <c r="T11" s="1" t="s">
+      <c r="T11" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1512,50 +1663,50 @@
       <c r="F12" t="s">
         <v>102</v>
       </c>
-      <c r="G12" t="s">
-        <v>3</v>
-      </c>
       <c r="H12" t="s">
         <v>3</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" t="s">
         <v>102</v>
       </c>
-      <c r="J12" t="s">
+      <c r="M12" t="s">
         <v>103</v>
       </c>
-      <c r="K12" t="s">
+      <c r="N12" t="s">
         <v>89</v>
       </c>
-      <c r="L12" t="s">
-        <v>3</v>
-      </c>
-      <c r="M12" t="s">
-        <v>3</v>
-      </c>
-      <c r="N12" t="s">
-        <v>3</v>
-      </c>
       <c r="O12" t="s">
+        <v>3</v>
+      </c>
+      <c r="P12" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>3</v>
+      </c>
+      <c r="R12" t="s">
         <v>50</v>
       </c>
-      <c r="P12" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>3</v>
-      </c>
-      <c r="R12" s="1" t="s">
+      <c r="S12" t="s">
+        <v>3</v>
+      </c>
+      <c r="T12" t="s">
+        <v>3</v>
+      </c>
+      <c r="U12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="S12" s="1" t="s">
+      <c r="V12" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="T12" s="1" t="s">
+      <c r="W12" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1565,29 +1716,20 @@
       <c r="F13" t="s">
         <v>104</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>105</v>
       </c>
-      <c r="H13" t="s">
+      <c r="J13" t="s">
         <v>106</v>
       </c>
-      <c r="I13" t="s">
+      <c r="L13" t="s">
         <v>104</v>
       </c>
-      <c r="J13" t="s">
+      <c r="M13" t="s">
         <v>105</v>
       </c>
-      <c r="K13" t="s">
+      <c r="N13" t="s">
         <v>106</v>
-      </c>
-      <c r="L13" t="s">
-        <v>42</v>
-      </c>
-      <c r="M13" t="s">
-        <v>42</v>
-      </c>
-      <c r="N13" t="s">
-        <v>42</v>
       </c>
       <c r="O13" t="s">
         <v>42</v>
@@ -1598,17 +1740,26 @@
       <c r="Q13" t="s">
         <v>42</v>
       </c>
-      <c r="R13" s="1" t="s">
+      <c r="R13" t="s">
         <v>42</v>
       </c>
-      <c r="S13" s="1" t="s">
+      <c r="S13" t="s">
         <v>42</v>
       </c>
-      <c r="T13" s="1" t="s">
+      <c r="T13" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1618,50 +1769,50 @@
       <c r="F14" t="s">
         <v>107</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>108</v>
       </c>
-      <c r="H14" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" t="s">
         <v>107</v>
       </c>
-      <c r="J14" t="s">
+      <c r="M14" t="s">
         <v>108</v>
       </c>
-      <c r="K14" t="s">
+      <c r="N14" t="s">
         <v>109</v>
       </c>
-      <c r="L14" t="s">
-        <v>3</v>
-      </c>
-      <c r="M14" t="s">
-        <v>3</v>
-      </c>
-      <c r="N14" t="s">
-        <v>3</v>
-      </c>
       <c r="O14" t="s">
+        <v>3</v>
+      </c>
+      <c r="P14" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>3</v>
+      </c>
+      <c r="R14" t="s">
         <v>51</v>
       </c>
-      <c r="P14" t="s">
+      <c r="S14" t="s">
         <v>52</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="T14" t="s">
         <v>53</v>
       </c>
-      <c r="R14" s="1" t="s">
+      <c r="U14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="S14" s="1" t="s">
+      <c r="V14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="T14" s="1" t="s">
+      <c r="W14" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1671,29 +1822,20 @@
       <c r="F15" t="s">
         <v>3</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>97</v>
       </c>
-      <c r="H15" t="s">
+      <c r="J15" t="s">
         <v>111</v>
       </c>
-      <c r="I15" t="s">
+      <c r="L15" t="s">
         <v>110</v>
       </c>
-      <c r="J15" t="s">
+      <c r="M15" t="s">
         <v>97</v>
       </c>
-      <c r="K15" t="s">
+      <c r="N15" t="s">
         <v>111</v>
-      </c>
-      <c r="L15" t="s">
-        <v>3</v>
-      </c>
-      <c r="M15" t="s">
-        <v>38</v>
-      </c>
-      <c r="N15" t="s">
-        <v>3</v>
       </c>
       <c r="O15" t="s">
         <v>3</v>
@@ -1704,17 +1846,26 @@
       <c r="Q15" t="s">
         <v>3</v>
       </c>
-      <c r="R15" s="1" t="s">
+      <c r="R15" t="s">
+        <v>3</v>
+      </c>
+      <c r="S15" t="s">
+        <v>38</v>
+      </c>
+      <c r="T15" t="s">
+        <v>3</v>
+      </c>
+      <c r="U15" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="S15" s="1" t="s">
+      <c r="V15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="T15" s="1" t="s">
+      <c r="W15" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1724,50 +1875,50 @@
       <c r="F16" t="s">
         <v>104</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>112</v>
       </c>
-      <c r="H16" t="s">
+      <c r="J16" t="s">
         <v>106</v>
       </c>
-      <c r="I16" t="s">
+      <c r="L16" t="s">
         <v>104</v>
       </c>
-      <c r="J16" t="s">
+      <c r="M16" t="s">
         <v>112</v>
       </c>
-      <c r="K16" t="s">
+      <c r="N16" t="s">
         <v>106</v>
-      </c>
-      <c r="L16" t="s">
-        <v>42</v>
-      </c>
-      <c r="M16" t="s">
-        <v>3</v>
-      </c>
-      <c r="N16" t="s">
-        <v>42</v>
       </c>
       <c r="O16" t="s">
         <v>42</v>
       </c>
       <c r="P16" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="Q16" t="s">
         <v>42</v>
       </c>
-      <c r="R16" s="1" t="s">
+      <c r="R16" t="s">
         <v>42</v>
       </c>
-      <c r="S16" s="1" t="s">
+      <c r="S16" t="s">
         <v>54</v>
       </c>
-      <c r="T16" s="1" t="s">
+      <c r="T16" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1777,50 +1928,50 @@
       <c r="F17" t="s">
         <v>3</v>
       </c>
-      <c r="G17" t="s">
-        <v>3</v>
-      </c>
       <c r="H17" t="s">
+        <v>3</v>
+      </c>
+      <c r="J17" t="s">
         <v>111</v>
       </c>
-      <c r="I17" t="s">
+      <c r="L17" t="s">
         <v>113</v>
       </c>
-      <c r="J17" t="s">
+      <c r="M17" t="s">
         <v>23</v>
       </c>
-      <c r="K17" t="s">
+      <c r="N17" t="s">
         <v>111</v>
       </c>
-      <c r="L17" t="s">
-        <v>3</v>
-      </c>
-      <c r="M17" t="s">
-        <v>3</v>
-      </c>
-      <c r="N17" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" t="s">
         <v>3</v>
       </c>
       <c r="P17" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>3</v>
+      </c>
+      <c r="R17" t="s">
+        <v>3</v>
+      </c>
+      <c r="S17" t="s">
         <v>50</v>
       </c>
-      <c r="Q17" t="s">
-        <v>3</v>
-      </c>
-      <c r="R17" s="1" t="s">
+      <c r="T17" t="s">
+        <v>3</v>
+      </c>
+      <c r="U17" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="S17" s="1" t="s">
+      <c r="V17" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="T17" s="1" t="s">
+      <c r="W17" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1830,29 +1981,20 @@
       <c r="F18" t="s">
         <v>96</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>97</v>
       </c>
-      <c r="H18" t="s">
+      <c r="J18" t="s">
         <v>98</v>
       </c>
-      <c r="I18" t="s">
+      <c r="L18" t="s">
         <v>96</v>
       </c>
-      <c r="J18" t="s">
+      <c r="M18" t="s">
         <v>97</v>
       </c>
-      <c r="K18" t="s">
+      <c r="N18" t="s">
         <v>98</v>
-      </c>
-      <c r="L18" t="s">
-        <v>38</v>
-      </c>
-      <c r="M18" t="s">
-        <v>38</v>
-      </c>
-      <c r="N18" t="s">
-        <v>39</v>
       </c>
       <c r="O18" t="s">
         <v>38</v>
@@ -1863,17 +2005,26 @@
       <c r="Q18" t="s">
         <v>39</v>
       </c>
-      <c r="R18" s="1" t="s">
+      <c r="R18" t="s">
         <v>38</v>
       </c>
-      <c r="S18" s="1" t="s">
+      <c r="S18" t="s">
         <v>38</v>
       </c>
-      <c r="T18" s="1" t="s">
+      <c r="T18" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1883,29 +2034,20 @@
       <c r="F19" t="s">
         <v>96</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>97</v>
       </c>
-      <c r="H19" t="s">
+      <c r="J19" t="s">
         <v>98</v>
       </c>
-      <c r="I19" t="s">
+      <c r="L19" t="s">
         <v>96</v>
       </c>
-      <c r="J19" t="s">
+      <c r="M19" t="s">
         <v>97</v>
       </c>
-      <c r="K19" t="s">
+      <c r="N19" t="s">
         <v>98</v>
-      </c>
-      <c r="L19" t="s">
-        <v>38</v>
-      </c>
-      <c r="M19" t="s">
-        <v>38</v>
-      </c>
-      <c r="N19" t="s">
-        <v>39</v>
       </c>
       <c r="O19" t="s">
         <v>38</v>
@@ -1916,17 +2058,26 @@
       <c r="Q19" t="s">
         <v>39</v>
       </c>
-      <c r="R19" s="1" t="s">
+      <c r="R19" t="s">
         <v>38</v>
       </c>
-      <c r="S19" s="1" t="s">
+      <c r="S19" t="s">
         <v>38</v>
       </c>
-      <c r="T19" s="1" t="s">
+      <c r="T19" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1936,29 +2087,20 @@
       <c r="F20" t="s">
         <v>3</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>114</v>
       </c>
-      <c r="H20" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" t="s">
-        <v>3</v>
-      </c>
       <c r="J20" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" t="s">
         <v>114</v>
       </c>
-      <c r="K20" t="s">
+      <c r="N20" t="s">
         <v>115</v>
-      </c>
-      <c r="L20" t="s">
-        <v>3</v>
-      </c>
-      <c r="M20" t="s">
-        <v>43</v>
-      </c>
-      <c r="N20" t="s">
-        <v>3</v>
       </c>
       <c r="O20" t="s">
         <v>3</v>
@@ -1969,17 +2111,26 @@
       <c r="Q20" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S20" s="1" t="s">
+      <c r="R20" t="s">
+        <v>3</v>
+      </c>
+      <c r="S20" t="s">
         <v>43</v>
       </c>
-      <c r="T20" s="1" t="s">
+      <c r="T20" t="s">
+        <v>3</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W20" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1989,29 +2140,20 @@
       <c r="F21" t="s">
         <v>3</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>116</v>
       </c>
-      <c r="H21" t="s">
+      <c r="J21" t="s">
         <v>117</v>
       </c>
-      <c r="I21" t="s">
+      <c r="L21" t="s">
         <v>110</v>
       </c>
-      <c r="J21" t="s">
+      <c r="M21" t="s">
         <v>116</v>
       </c>
-      <c r="K21" t="s">
+      <c r="N21" t="s">
         <v>117</v>
-      </c>
-      <c r="L21" t="s">
-        <v>3</v>
-      </c>
-      <c r="M21" t="s">
-        <v>44</v>
-      </c>
-      <c r="N21" t="s">
-        <v>45</v>
       </c>
       <c r="O21" t="s">
         <v>3</v>
@@ -2022,17 +2164,26 @@
       <c r="Q21" t="s">
         <v>45</v>
       </c>
-      <c r="R21" s="1" t="s">
+      <c r="R21" t="s">
+        <v>3</v>
+      </c>
+      <c r="S21" t="s">
+        <v>44</v>
+      </c>
+      <c r="T21" t="s">
+        <v>45</v>
+      </c>
+      <c r="U21" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="S21" s="1" t="s">
+      <c r="V21" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="T21" s="1" t="s">
+      <c r="W21" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2042,30 +2193,21 @@
       <c r="F22" t="s">
         <v>3</v>
       </c>
-      <c r="G22" t="s">
-        <v>3</v>
-      </c>
       <c r="H22" t="s">
         <v>3</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" t="s">
         <v>118</v>
       </c>
-      <c r="J22" t="s">
+      <c r="M22" t="s">
         <v>119</v>
       </c>
-      <c r="K22" t="s">
+      <c r="N22" t="s">
         <v>120</v>
       </c>
-      <c r="L22" t="s">
-        <v>3</v>
-      </c>
-      <c r="M22" t="s">
-        <v>3</v>
-      </c>
-      <c r="N22" t="s">
-        <v>3</v>
-      </c>
       <c r="O22" t="s">
         <v>3</v>
       </c>
@@ -2075,17 +2217,26 @@
       <c r="Q22" t="s">
         <v>3</v>
       </c>
-      <c r="R22" s="1" t="s">
+      <c r="R22" t="s">
+        <v>3</v>
+      </c>
+      <c r="S22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T22" t="s">
+        <v>3</v>
+      </c>
+      <c r="U22" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="S22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T22" s="1" t="s">
+      <c r="V22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W22" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2095,50 +2246,50 @@
       <c r="F23" t="s">
         <v>3</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>122</v>
       </c>
-      <c r="H23" t="s">
-        <v>3</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" t="s">
         <v>121</v>
       </c>
-      <c r="J23" t="s">
+      <c r="M23" t="s">
         <v>122</v>
       </c>
-      <c r="K23" t="s">
-        <v>3</v>
-      </c>
-      <c r="L23" t="s">
-        <v>3</v>
-      </c>
-      <c r="M23" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" t="s">
         <v>3</v>
       </c>
       <c r="O23" t="s">
+        <v>3</v>
+      </c>
+      <c r="P23" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>3</v>
+      </c>
+      <c r="R23" t="s">
         <v>50</v>
       </c>
-      <c r="P23" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>3</v>
-      </c>
-      <c r="R23" s="1" t="s">
+      <c r="S23" t="s">
+        <v>3</v>
+      </c>
+      <c r="T23" t="s">
+        <v>3</v>
+      </c>
+      <c r="U23" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="S23" s="1" t="s">
+      <c r="V23" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="T23" s="1" t="s">
+      <c r="W23" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2148,50 +2299,50 @@
       <c r="F24" t="s">
         <v>123</v>
       </c>
-      <c r="G24" t="s">
-        <v>3</v>
-      </c>
       <c r="H24" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" t="s">
         <v>125</v>
       </c>
-      <c r="I24" t="s">
+      <c r="L24" t="s">
         <v>123</v>
       </c>
-      <c r="J24" t="s">
+      <c r="M24" t="s">
         <v>124</v>
       </c>
-      <c r="K24" t="s">
+      <c r="N24" t="s">
         <v>125</v>
       </c>
-      <c r="L24" t="s">
-        <v>3</v>
-      </c>
-      <c r="M24" t="s">
-        <v>3</v>
-      </c>
-      <c r="N24" t="s">
-        <v>3</v>
-      </c>
       <c r="O24" t="s">
+        <v>3</v>
+      </c>
+      <c r="P24" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>3</v>
+      </c>
+      <c r="R24" t="s">
         <v>55</v>
       </c>
-      <c r="P24" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q24" t="s">
+      <c r="S24" t="s">
+        <v>3</v>
+      </c>
+      <c r="T24" t="s">
         <v>55</v>
       </c>
-      <c r="R24" s="1" t="s">
+      <c r="U24" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="S24" s="1" t="s">
+      <c r="V24" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="T24" s="1" t="s">
+      <c r="W24" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2201,26 +2352,17 @@
       <c r="F25" t="s">
         <v>3</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>100</v>
       </c>
-      <c r="H25" t="s">
-        <v>3</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
+        <v>3</v>
+      </c>
+      <c r="L25" t="s">
         <v>126</v>
       </c>
-      <c r="J25" t="s">
+      <c r="M25" t="s">
         <v>100</v>
-      </c>
-      <c r="K25" t="s">
-        <v>3</v>
-      </c>
-      <c r="L25" t="s">
-        <v>3</v>
-      </c>
-      <c r="M25" t="s">
-        <v>40</v>
       </c>
       <c r="N25" t="s">
         <v>3</v>
@@ -2234,17 +2376,26 @@
       <c r="Q25" t="s">
         <v>3</v>
       </c>
-      <c r="R25" s="1" t="s">
+      <c r="R25" t="s">
+        <v>3</v>
+      </c>
+      <c r="S25" t="s">
+        <v>40</v>
+      </c>
+      <c r="T25" t="s">
+        <v>3</v>
+      </c>
+      <c r="U25" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="S25" s="1" t="s">
+      <c r="V25" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="T25" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W25" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2254,29 +2405,20 @@
       <c r="F26" t="s">
         <v>127</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>122</v>
       </c>
-      <c r="H26" t="s">
+      <c r="J26" t="s">
         <v>106</v>
       </c>
-      <c r="I26" t="s">
+      <c r="L26" t="s">
         <v>127</v>
       </c>
-      <c r="J26" t="s">
+      <c r="M26" t="s">
         <v>122</v>
       </c>
-      <c r="K26" t="s">
+      <c r="N26" t="s">
         <v>106</v>
-      </c>
-      <c r="L26" t="s">
-        <v>3</v>
-      </c>
-      <c r="M26" t="s">
-        <v>3</v>
-      </c>
-      <c r="N26" t="s">
-        <v>42</v>
       </c>
       <c r="O26" t="s">
         <v>3</v>
@@ -2287,17 +2429,26 @@
       <c r="Q26" t="s">
         <v>42</v>
       </c>
-      <c r="R26" s="1" t="s">
+      <c r="R26" t="s">
+        <v>3</v>
+      </c>
+      <c r="S26" t="s">
+        <v>3</v>
+      </c>
+      <c r="T26" t="s">
+        <v>42</v>
+      </c>
+      <c r="U26" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="S26" s="1" t="s">
+      <c r="V26" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="T26" s="1" t="s">
+      <c r="W26" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2307,30 +2458,21 @@
       <c r="F27" t="s">
         <v>3</v>
       </c>
-      <c r="G27" t="s">
-        <v>3</v>
-      </c>
       <c r="H27" t="s">
         <v>3</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" t="s">
         <v>128</v>
       </c>
-      <c r="J27" t="s">
+      <c r="M27" t="s">
         <v>129</v>
       </c>
-      <c r="K27" t="s">
+      <c r="N27" t="s">
         <v>130</v>
       </c>
-      <c r="L27" t="s">
-        <v>3</v>
-      </c>
-      <c r="M27" t="s">
-        <v>3</v>
-      </c>
-      <c r="N27" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" t="s">
         <v>3</v>
       </c>
@@ -2340,17 +2482,26 @@
       <c r="Q27" t="s">
         <v>3</v>
       </c>
-      <c r="R27" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S27" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T27" s="1" t="s">
+      <c r="R27" t="s">
+        <v>3</v>
+      </c>
+      <c r="S27" t="s">
+        <v>3</v>
+      </c>
+      <c r="T27" t="s">
+        <v>3</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W27" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2360,30 +2511,21 @@
       <c r="F28" t="s">
         <v>131</v>
       </c>
-      <c r="G28" t="s">
-        <v>3</v>
-      </c>
       <c r="H28" t="s">
+        <v>3</v>
+      </c>
+      <c r="J28" t="s">
         <v>133</v>
       </c>
-      <c r="I28" t="s">
+      <c r="L28" t="s">
         <v>131</v>
       </c>
-      <c r="J28" t="s">
+      <c r="M28" t="s">
         <v>132</v>
       </c>
-      <c r="K28" t="s">
+      <c r="N28" t="s">
         <v>133</v>
       </c>
-      <c r="L28" t="s">
-        <v>3</v>
-      </c>
-      <c r="M28" t="s">
-        <v>3</v>
-      </c>
-      <c r="N28" t="s">
-        <v>3</v>
-      </c>
       <c r="O28" t="s">
         <v>3</v>
       </c>
@@ -2393,17 +2535,26 @@
       <c r="Q28" t="s">
         <v>3</v>
       </c>
-      <c r="R28" s="1" t="s">
+      <c r="R28" t="s">
+        <v>3</v>
+      </c>
+      <c r="S28" t="s">
+        <v>3</v>
+      </c>
+      <c r="T28" t="s">
+        <v>3</v>
+      </c>
+      <c r="U28" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="S28" s="1" t="s">
+      <c r="V28" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="T28" s="1" t="s">
+      <c r="W28" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
@@ -2413,50 +2564,50 @@
       <c r="F29" t="s">
         <v>3</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>135</v>
       </c>
-      <c r="H29" t="s">
+      <c r="J29" t="s">
         <v>136</v>
       </c>
-      <c r="I29" t="s">
+      <c r="L29" t="s">
         <v>134</v>
       </c>
-      <c r="J29" t="s">
+      <c r="M29" t="s">
         <v>135</v>
       </c>
-      <c r="K29" t="s">
+      <c r="N29" t="s">
         <v>136</v>
       </c>
-      <c r="L29" t="s">
-        <v>3</v>
-      </c>
-      <c r="M29" t="s">
-        <v>3</v>
-      </c>
-      <c r="N29" t="s">
-        <v>46</v>
-      </c>
       <c r="O29" t="s">
         <v>3</v>
       </c>
       <c r="P29" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="Q29" t="s">
         <v>46</v>
       </c>
-      <c r="R29" s="1" t="s">
+      <c r="R29" t="s">
+        <v>3</v>
+      </c>
+      <c r="S29" t="s">
+        <v>56</v>
+      </c>
+      <c r="T29" t="s">
+        <v>46</v>
+      </c>
+      <c r="U29" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="S29" s="1" t="s">
+      <c r="V29" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="T29" s="1" t="s">
+      <c r="W29" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
@@ -2466,29 +2617,20 @@
       <c r="F30" t="s">
         <v>104</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>105</v>
       </c>
-      <c r="H30" t="s">
+      <c r="J30" t="s">
         <v>106</v>
       </c>
-      <c r="I30" t="s">
+      <c r="L30" t="s">
         <v>104</v>
       </c>
-      <c r="J30" t="s">
+      <c r="M30" t="s">
         <v>105</v>
       </c>
-      <c r="K30" t="s">
+      <c r="N30" t="s">
         <v>106</v>
-      </c>
-      <c r="L30" t="s">
-        <v>42</v>
-      </c>
-      <c r="M30" t="s">
-        <v>42</v>
-      </c>
-      <c r="N30" t="s">
-        <v>42</v>
       </c>
       <c r="O30" t="s">
         <v>42</v>
@@ -2499,27 +2641,38 @@
       <c r="Q30" t="s">
         <v>42</v>
       </c>
-      <c r="R30" s="1" t="s">
+      <c r="R30" t="s">
         <v>42</v>
       </c>
-      <c r="S30" s="1" t="s">
+      <c r="S30" t="s">
         <v>42</v>
       </c>
-      <c r="T30" s="1" t="s">
+      <c r="T30" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="F32" s="4" t="s">
+      <c r="U30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W30" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="F32" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" t="s">
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="L32" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>147</v>
       </c>
@@ -2538,20 +2691,29 @@
       <c r="F33" t="s">
         <v>1</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="H33" t="s">
         <v>32</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="J33" t="s">
         <v>34</v>
       </c>
-      <c r="I33" t="s">
+      <c r="K33" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="L33" t="s">
         <v>140</v>
       </c>
-      <c r="J33" t="s">
+      <c r="M33" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>152</v>
       </c>
@@ -2564,17 +2726,23 @@
       <c r="F34" t="s">
         <v>82</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="H34" t="s">
         <v>83</v>
       </c>
-      <c r="H34" t="s">
-        <v>3</v>
-      </c>
-      <c r="I34" t="s">
+      <c r="I34" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="J34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L34" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>152</v>
       </c>
@@ -2587,17 +2755,20 @@
       <c r="F35" t="s">
         <v>85</v>
       </c>
-      <c r="G35" t="s">
-        <v>3</v>
+      <c r="G35" s="13">
+        <v>2</v>
       </c>
       <c r="H35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J35" t="s">
         <v>86</v>
       </c>
-      <c r="I35" t="s">
+      <c r="L35" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>152</v>
       </c>
@@ -2610,21 +2781,30 @@
       <c r="E36" t="s">
         <v>5</v>
       </c>
-      <c r="F36" t="s">
-        <v>3</v>
-      </c>
-      <c r="G36" t="s">
+      <c r="F36" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="G36" s="14">
+        <v>0</v>
+      </c>
+      <c r="H36" t="s">
         <v>33</v>
       </c>
-      <c r="H36" t="s">
-        <v>3</v>
-      </c>
-      <c r="I36" t="s">
+      <c r="I36" s="16">
+        <v>1</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="K36" s="16">
+        <v>0</v>
+      </c>
+      <c r="L36" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="18" t="s">
         <v>148</v>
       </c>
       <c r="B37" t="s">
@@ -2636,17 +2816,29 @@
       <c r="E37" t="s">
         <v>6</v>
       </c>
-      <c r="F37" t="s">
-        <v>3</v>
-      </c>
-      <c r="G37" t="s">
-        <v>3</v>
-      </c>
-      <c r="H37" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F37" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G37" s="14">
+        <v>0</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="I37" s="16">
+        <v>0</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="K37" s="16">
+        <v>0</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B38">
         <v>5.3999999999999999E-2</v>
       </c>
@@ -2656,14 +2848,18 @@
       <c r="F38" t="s">
         <v>3</v>
       </c>
-      <c r="G38" t="s">
-        <v>3</v>
-      </c>
+      <c r="G38" s="11"/>
       <c r="H38" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J38" t="s">
+        <v>3</v>
+      </c>
+      <c r="L38" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>152</v>
       </c>
@@ -2673,15 +2869,19 @@
       <c r="F39" t="s">
         <v>3</v>
       </c>
-      <c r="G39" t="s">
-        <v>3</v>
-      </c>
+      <c r="G39" s="11"/>
       <c r="H39" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="J39" t="s">
+        <v>3</v>
+      </c>
+      <c r="L39" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" s="19" t="s">
         <v>150</v>
       </c>
       <c r="D40" t="s">
@@ -2693,14 +2893,23 @@
       <c r="F40" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G40" s="2" t="s">
-        <v>146</v>
+      <c r="G40" s="14">
+        <v>0</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I40" s="16">
+        <v>0</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="K40" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>152</v>
       </c>
@@ -2710,34 +2919,41 @@
       <c r="F41" t="s">
         <v>3</v>
       </c>
-      <c r="G41" t="s">
-        <v>3</v>
-      </c>
+      <c r="G41" s="11"/>
       <c r="H41" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>156</v>
       </c>
-      <c r="C42" t="s">
-        <v>152</v>
-      </c>
       <c r="E42" t="s">
         <v>11</v>
       </c>
-      <c r="F42" t="s">
-        <v>99</v>
-      </c>
-      <c r="G42" t="s">
-        <v>100</v>
-      </c>
-      <c r="H42" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F42" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G42" s="12">
+        <v>1</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I42" s="9">
+        <v>1</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K42" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>152</v>
       </c>
@@ -2750,15 +2966,16 @@
       <c r="F43" t="s">
         <v>102</v>
       </c>
-      <c r="G43" t="s">
-        <v>3</v>
-      </c>
+      <c r="G43" s="11"/>
       <c r="H43" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="J43" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" s="18" t="s">
         <v>148</v>
       </c>
       <c r="D44" t="s">
@@ -2770,14 +2987,23 @@
       <c r="F44" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="G44" s="2" t="s">
-        <v>145</v>
+      <c r="G44" s="14">
+        <v>0</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I44" s="16">
+        <v>0</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="K44" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>152</v>
       </c>
@@ -2790,14 +3016,20 @@
       <c r="F45" t="s">
         <v>107</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" s="15">
+        <v>5</v>
+      </c>
+      <c r="H45" t="s">
         <v>108</v>
       </c>
-      <c r="H45" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I45" s="16">
+        <v>1</v>
+      </c>
+      <c r="J45" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>152</v>
       </c>
@@ -2810,14 +3042,21 @@
       <c r="F46" t="s">
         <v>3</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G46" s="11"/>
+      <c r="H46" t="s">
         <v>146</v>
       </c>
-      <c r="H46" t="s">
+      <c r="I46" s="16">
+        <v>0</v>
+      </c>
+      <c r="J46" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K46" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>151</v>
       </c>
@@ -2833,17 +3072,23 @@
       <c r="E47" t="s">
         <v>16</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" s="14">
+        <v>0</v>
+      </c>
+      <c r="H47" t="s">
         <v>112</v>
       </c>
-      <c r="H47" t="s">
+      <c r="J47" s="5" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K47" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>152</v>
       </c>
@@ -2856,14 +3101,18 @@
       <c r="F48" t="s">
         <v>3</v>
       </c>
-      <c r="G48" t="s">
-        <v>3</v>
-      </c>
+      <c r="G48" s="11"/>
       <c r="H48" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K48" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D49" t="s">
         <v>152</v>
       </c>
@@ -2873,15 +3122,24 @@
       <c r="F49" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G49" s="2" t="s">
-        <v>146</v>
+      <c r="G49" s="14">
+        <v>0</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+      <c r="I49" s="16">
+        <v>0</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="K49" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" s="18" t="s">
         <v>148</v>
       </c>
       <c r="D50" t="s">
@@ -2893,14 +3151,23 @@
       <c r="F50" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G50" s="2" t="s">
-        <v>146</v>
+      <c r="G50" s="14">
+        <v>0</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I50" s="16">
+        <v>0</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="K50" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>152</v>
       </c>
@@ -2913,17 +3180,23 @@
       <c r="E51" t="s">
         <v>20</v>
       </c>
-      <c r="F51" t="s">
-        <v>3</v>
-      </c>
-      <c r="G51" t="s">
-        <v>114</v>
-      </c>
-      <c r="H51" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F51" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="G51" s="15">
+        <v>0</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="I51" s="17">
+        <v>0</v>
+      </c>
+      <c r="J51" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B52">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -2936,14 +3209,21 @@
       <c r="F52" t="s">
         <v>3</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G52" s="11"/>
+      <c r="H52" t="s">
         <v>116</v>
       </c>
-      <c r="H52" t="s">
+      <c r="I52" s="16">
+        <v>1</v>
+      </c>
+      <c r="J52" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K52" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>152</v>
       </c>
@@ -2953,15 +3233,16 @@
       <c r="F53" t="s">
         <v>3</v>
       </c>
-      <c r="G53" t="s">
-        <v>3</v>
-      </c>
+      <c r="G53" s="11"/>
       <c r="H53" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+      <c r="J53" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" s="18" t="s">
         <v>148</v>
       </c>
       <c r="B54" t="s">
@@ -2976,14 +3257,18 @@
       <c r="F54" t="s">
         <v>3</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G54" s="11"/>
+      <c r="H54" t="s">
         <v>122</v>
       </c>
-      <c r="H54" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I54" s="16">
+        <v>8</v>
+      </c>
+      <c r="J54" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>152</v>
       </c>
@@ -2996,14 +3281,20 @@
       <c r="F55" t="s">
         <v>123</v>
       </c>
-      <c r="G55" t="s">
-        <v>3</v>
+      <c r="G55" s="14" t="s">
+        <v>181</v>
       </c>
       <c r="H55" t="s">
+        <v>3</v>
+      </c>
+      <c r="J55" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K55" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>157</v>
       </c>
@@ -3016,31 +3307,44 @@
       <c r="F56" t="s">
         <v>3</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G56" s="11"/>
+      <c r="H56" t="s">
         <v>100</v>
       </c>
-      <c r="H56" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J56" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>152</v>
       </c>
+      <c r="C57" t="s">
+        <v>152</v>
+      </c>
       <c r="E57" t="s">
         <v>27</v>
       </c>
       <c r="F57" t="s">
         <v>127</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G57" s="14">
+        <v>2</v>
+      </c>
+      <c r="H57" t="s">
         <v>122</v>
       </c>
-      <c r="H57" t="s">
+      <c r="I57" s="16">
+        <v>8</v>
+      </c>
+      <c r="J57" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K57" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B58">
         <v>0.14624000000000001</v>
       </c>
@@ -3050,14 +3354,15 @@
       <c r="F58" t="s">
         <v>3</v>
       </c>
-      <c r="G58" t="s">
-        <v>3</v>
-      </c>
+      <c r="G58" s="11"/>
       <c r="H58" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>157</v>
       </c>
@@ -3070,14 +3375,15 @@
       <c r="F59" t="s">
         <v>131</v>
       </c>
-      <c r="G59" t="s">
-        <v>3</v>
-      </c>
+      <c r="G59" s="11"/>
       <c r="H59" t="s">
+        <v>3</v>
+      </c>
+      <c r="J59" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>152</v>
       </c>
@@ -3090,14 +3396,15 @@
       <c r="F60" t="s">
         <v>3</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G60" s="11"/>
+      <c r="H60" t="s">
         <v>135</v>
       </c>
-      <c r="H60" t="s">
+      <c r="J60" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>149</v>
       </c>
@@ -3110,58 +3417,186 @@
       <c r="F61" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="G61" s="2" t="s">
-        <v>145</v>
+      <c r="G61" s="14">
+        <v>0</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C62">
+      <c r="I61" s="16">
+        <v>0</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="K61" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F62" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G62" s="14">
+        <f>SUM(G34:G61)/COUNT(G34:G61)</f>
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="H62" s="14"/>
+      <c r="I62" s="14">
+        <f t="shared" ref="I62:K62" si="0">SUM(I34:I61)/COUNT(I34:I61)</f>
+        <v>1.4285714285714286</v>
+      </c>
+      <c r="J62" s="14"/>
+      <c r="K62" s="14">
+        <f t="shared" si="0"/>
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C63">
         <f>COUNTA(C34:C61)</f>
         <v>16</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="E63" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C63">
-        <f>C62-2</f>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C64">
+        <f>C63-2</f>
         <v>14</v>
       </c>
-      <c r="E63" s="3" t="s">
+      <c r="E64" s="3" t="s">
         <v>154</v>
       </c>
+    </row>
+    <row r="72" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E72" t="s">
+        <v>148</v>
+      </c>
+      <c r="F72" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="73" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E73" t="s">
+        <v>175</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="G73" s="8"/>
+      <c r="J73" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="K73" s="8"/>
+    </row>
+    <row r="74" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E74" t="s">
+        <v>174</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G74" s="9"/>
+      <c r="H74" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="K74" s="9"/>
+    </row>
+    <row r="75" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E75" t="s">
+        <v>173</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="G75" s="8"/>
+      <c r="H75" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="I75" s="8"/>
+    </row>
+    <row r="76" spans="5:11" ht="408" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E76" t="s">
+        <v>172</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G76" s="10"/>
+      <c r="H76" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="I76" s="10"/>
+      <c r="J76" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K76" s="10"/>
+    </row>
+    <row r="78" spans="5:11" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="E78" t="s">
+        <v>11</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G78" s="10"/>
+      <c r="H78" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="I78" s="10"/>
+      <c r="J78" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K78" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="F32:J32"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="O1:Q1"/>
     <mergeCell ref="R1:T1"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="F1:J1"/>
   </mergeCells>
-  <conditionalFormatting sqref="L3:N30">
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="unk">
-      <formula>NOT(ISERROR(SEARCH("unk",L3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O3:Q30">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="unk">
-      <formula>NOT(ISERROR(SEARCH("unk",O3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:T30 F32 J33 I32:I36">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="unk">
+  <conditionalFormatting sqref="O3:Q30 F73:G73 J73:K73 F34:K48 H50:K50 G49:K49 F49:F50 F51:K62">
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="unk">
       <formula>NOT(ISERROR(SEARCH("unk",F3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F34:H61">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="unk">
-      <formula>NOT(ISERROR(SEARCH("unk",F34)))</formula>
+  <conditionalFormatting sqref="R3:T30">
+    <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="unk">
+      <formula>NOT(ISERROR(SEARCH("unk",R3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:W30 F32:G32 M33 L32:L39">
+    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="unk">
+      <formula>NOT(ISERROR(SEARCH("unk",F3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F76:K76">
+    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="unk">
+      <formula>NOT(ISERROR(SEARCH("unk",F76)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F78:K78">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="unk">
+      <formula>NOT(ISERROR(SEARCH("unk",F78)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F75:I75">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="unk">
+      <formula>NOT(ISERROR(SEARCH("unk",F75)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F74:K74">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="unk">
+      <formula>NOT(ISERROR(SEARCH("unk",F74)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Axelrod FP.xlsx
+++ b/Axelrod FP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnpaulmintz/Dissertation/Analysis (git)/Still-Falls Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9AE9554-5C9D-3E4D-8D73-3D742B3CA54E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE384F3-1380-504D-B87F-49A4473196F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="460" windowWidth="28040" windowHeight="15980" xr2:uid="{C5A99E80-ED8F-0C4D-90B9-C385916291CE}"/>
+    <workbookView xWindow="260" yWindow="460" windowWidth="28040" windowHeight="15980" xr2:uid="{C5A99E80-ED8F-0C4D-90B9-C385916291CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="183">
   <si>
     <t>id</t>
   </si>
@@ -571,6 +571,9 @@
   </si>
   <si>
     <t>^2</t>
+  </si>
+  <si>
+    <t>RPS non-strategic</t>
   </si>
 </sst>
 </file>
@@ -653,9 +656,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -690,6 +690,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1076,134 +1079,131 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE244BE4-BC56-524C-9A32-34902536105F}">
-  <dimension ref="A1:W78"/>
+  <dimension ref="A1:X78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J4" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="D26" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="23.1640625" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" customWidth="1"/>
-    <col min="6" max="6" width="25.1640625" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="20.33203125" customWidth="1"/>
-    <col min="9" max="9" width="5.5" style="4" customWidth="1"/>
-    <col min="10" max="10" width="59.33203125" customWidth="1"/>
-    <col min="11" max="11" width="6" style="4" customWidth="1"/>
-    <col min="12" max="12" width="54.6640625" customWidth="1"/>
-    <col min="13" max="13" width="56.33203125" customWidth="1"/>
-    <col min="14" max="14" width="60.1640625" customWidth="1"/>
+    <col min="1" max="4" width="23.1640625" customWidth="1"/>
+    <col min="5" max="5" width="25.33203125" customWidth="1"/>
+    <col min="7" max="7" width="25.1640625" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" customWidth="1"/>
+    <col min="10" max="10" width="5.5" style="4" customWidth="1"/>
+    <col min="11" max="11" width="59.33203125" customWidth="1"/>
+    <col min="12" max="12" width="6" style="4" customWidth="1"/>
+    <col min="13" max="13" width="54.6640625" customWidth="1"/>
+    <col min="14" max="14" width="56.33203125" customWidth="1"/>
+    <col min="15" max="15" width="60.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="F1" s="6" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="G1" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="L1" s="6" t="s">
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="M1" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6" t="s">
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6" t="s">
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6" t="s">
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="E2" t="s">
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>1</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>32</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>34</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>1</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>32</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>34</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>1</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>34</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>1</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>32</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>34</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>82</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>83</v>
       </c>
-      <c r="J3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="K3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" t="s">
         <v>82</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>83</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>84</v>
       </c>
-      <c r="O3" t="s">
-        <v>3</v>
-      </c>
       <c r="P3" t="s">
         <v>3</v>
       </c>
@@ -1219,97 +1219,97 @@
       <c r="T3" t="s">
         <v>3</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="U3" t="s">
         <v>3</v>
       </c>
       <c r="V3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="W3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>4</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>85</v>
       </c>
-      <c r="H4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="I4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" t="s">
         <v>86</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>85</v>
       </c>
-      <c r="M4" t="s">
-        <v>3</v>
-      </c>
       <c r="N4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" t="s">
         <v>86</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>37</v>
       </c>
-      <c r="P4" t="s">
-        <v>3</v>
-      </c>
       <c r="Q4" t="s">
         <v>3</v>
       </c>
       <c r="R4" t="s">
+        <v>3</v>
+      </c>
+      <c r="S4" t="s">
         <v>37</v>
       </c>
-      <c r="S4" t="s">
-        <v>3</v>
-      </c>
       <c r="T4" t="s">
+        <v>3</v>
+      </c>
+      <c r="U4" t="s">
         <v>48</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="V4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="W4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="X4" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>5</v>
       </c>
-      <c r="F5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="G5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" t="s">
         <v>33</v>
       </c>
-      <c r="J5" t="s">
-        <v>3</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="K5" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5" t="s">
         <v>87</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>33</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>88</v>
       </c>
-      <c r="O5" t="s">
-        <v>3</v>
-      </c>
       <c r="P5" t="s">
         <v>3</v>
       </c>
@@ -1320,43 +1320,43 @@
         <v>3</v>
       </c>
       <c r="S5" t="s">
+        <v>3</v>
+      </c>
+      <c r="T5" t="s">
         <v>49</v>
       </c>
-      <c r="T5" t="s">
-        <v>3</v>
-      </c>
-      <c r="U5" s="1" t="s">
+      <c r="U5" t="s">
+        <v>3</v>
+      </c>
+      <c r="V5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="W5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="X5" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>6</v>
       </c>
-      <c r="F6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J6" t="s">
-        <v>3</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="G6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M6" t="s">
         <v>89</v>
       </c>
-      <c r="M6" t="s">
-        <v>3</v>
-      </c>
       <c r="N6" t="s">
         <v>3</v>
       </c>
@@ -1378,44 +1378,44 @@
       <c r="T6" t="s">
         <v>3</v>
       </c>
-      <c r="U6" s="1" t="s">
+      <c r="U6" t="s">
         <v>3</v>
       </c>
       <c r="V6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="W6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X6" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>7</v>
       </c>
-      <c r="F7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" t="s">
+      <c r="G7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" t="s">
         <v>90</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>91</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>92</v>
       </c>
-      <c r="O7" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" t="s">
         <v>3</v>
       </c>
@@ -1431,44 +1431,44 @@
       <c r="T7" t="s">
         <v>3</v>
       </c>
-      <c r="U7" s="1" t="s">
+      <c r="U7" t="s">
+        <v>3</v>
+      </c>
+      <c r="V7" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="V7" s="1" t="s">
+      <c r="W7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="W7" s="1" t="s">
+      <c r="X7" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>8</v>
       </c>
-      <c r="F8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" t="s">
+      <c r="G8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" t="s">
         <v>93</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>94</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>95</v>
       </c>
-      <c r="O8" t="s">
-        <v>3</v>
-      </c>
       <c r="P8" t="s">
         <v>3</v>
       </c>
@@ -1484,86 +1484,86 @@
       <c r="T8" t="s">
         <v>3</v>
       </c>
-      <c r="U8" s="1" t="s">
+      <c r="U8" t="s">
+        <v>3</v>
+      </c>
+      <c r="V8" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="V8" s="1" t="s">
+      <c r="W8" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="W8" s="1" t="s">
+      <c r="X8" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>9</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>96</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>97</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>98</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>96</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>97</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>98</v>
-      </c>
-      <c r="O9" t="s">
-        <v>38</v>
       </c>
       <c r="P9" t="s">
         <v>38</v>
       </c>
       <c r="Q9" t="s">
+        <v>38</v>
+      </c>
+      <c r="R9" t="s">
         <v>39</v>
-      </c>
-      <c r="R9" t="s">
-        <v>38</v>
       </c>
       <c r="S9" t="s">
         <v>38</v>
       </c>
       <c r="T9" t="s">
+        <v>38</v>
+      </c>
+      <c r="U9" t="s">
         <v>39</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="V9" s="1" t="s">
         <v>38</v>
       </c>
       <c r="W9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X9" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>10</v>
       </c>
-      <c r="F10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" t="s">
-        <v>3</v>
-      </c>
-      <c r="L10" t="s">
+      <c r="G10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" t="s">
         <v>3</v>
       </c>
       <c r="M10" t="s">
@@ -1590,97 +1590,97 @@
       <c r="T10" t="s">
         <v>3</v>
       </c>
-      <c r="U10" s="1" t="s">
+      <c r="U10" t="s">
+        <v>3</v>
+      </c>
+      <c r="V10" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="V10" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="W10" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>99</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>100</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>101</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>99</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>100</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>101</v>
-      </c>
-      <c r="O11" t="s">
-        <v>40</v>
       </c>
       <c r="P11" t="s">
         <v>40</v>
       </c>
       <c r="Q11" t="s">
+        <v>40</v>
+      </c>
+      <c r="R11" t="s">
         <v>41</v>
-      </c>
-      <c r="R11" t="s">
-        <v>40</v>
       </c>
       <c r="S11" t="s">
         <v>40</v>
       </c>
       <c r="T11" t="s">
+        <v>40</v>
+      </c>
+      <c r="U11" t="s">
         <v>41</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="V11" s="1" t="s">
         <v>40</v>
       </c>
       <c r="W11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X11" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>12</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>102</v>
       </c>
-      <c r="H12" t="s">
-        <v>3</v>
-      </c>
-      <c r="J12" t="s">
-        <v>3</v>
-      </c>
-      <c r="L12" t="s">
+      <c r="I12" t="s">
+        <v>3</v>
+      </c>
+      <c r="K12" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" t="s">
         <v>102</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>103</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>89</v>
       </c>
-      <c r="O12" t="s">
-        <v>3</v>
-      </c>
       <c r="P12" t="s">
         <v>3</v>
       </c>
@@ -1688,51 +1688,51 @@
         <v>3</v>
       </c>
       <c r="R12" t="s">
+        <v>3</v>
+      </c>
+      <c r="S12" t="s">
         <v>50</v>
       </c>
-      <c r="S12" t="s">
-        <v>3</v>
-      </c>
       <c r="T12" t="s">
         <v>3</v>
       </c>
-      <c r="U12" s="1" t="s">
+      <c r="U12" t="s">
+        <v>3</v>
+      </c>
+      <c r="V12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="V12" s="1" t="s">
+      <c r="W12" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="W12" s="1" t="s">
+      <c r="X12" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>104</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>105</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>106</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>104</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>105</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>106</v>
-      </c>
-      <c r="O13" t="s">
-        <v>42</v>
       </c>
       <c r="P13" t="s">
         <v>42</v>
@@ -1749,7 +1749,7 @@
       <c r="T13" t="s">
         <v>42</v>
       </c>
-      <c r="U13" s="1" t="s">
+      <c r="U13" t="s">
         <v>42</v>
       </c>
       <c r="V13" s="1" t="s">
@@ -1758,35 +1758,35 @@
       <c r="W13" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>14</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>107</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>108</v>
       </c>
-      <c r="J14" t="s">
-        <v>3</v>
-      </c>
-      <c r="L14" t="s">
+      <c r="K14" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" t="s">
         <v>107</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>108</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>109</v>
       </c>
-      <c r="O14" t="s">
-        <v>3</v>
-      </c>
       <c r="P14" t="s">
         <v>3</v>
       </c>
@@ -1794,158 +1794,158 @@
         <v>3</v>
       </c>
       <c r="R14" t="s">
+        <v>3</v>
+      </c>
+      <c r="S14" t="s">
         <v>51</v>
       </c>
-      <c r="S14" t="s">
+      <c r="T14" t="s">
         <v>52</v>
       </c>
-      <c r="T14" t="s">
+      <c r="U14" t="s">
         <v>53</v>
       </c>
-      <c r="U14" s="1" t="s">
+      <c r="V14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="V14" s="1" t="s">
+      <c r="W14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="W14" s="1" t="s">
+      <c r="X14" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>15</v>
       </c>
-      <c r="F15" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="G15" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" t="s">
         <v>97</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>111</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>110</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>97</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>111</v>
       </c>
-      <c r="O15" t="s">
-        <v>3</v>
-      </c>
       <c r="P15" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="s">
         <v>38</v>
       </c>
-      <c r="Q15" t="s">
-        <v>3</v>
-      </c>
       <c r="R15" t="s">
         <v>3</v>
       </c>
       <c r="S15" t="s">
+        <v>3</v>
+      </c>
+      <c r="T15" t="s">
         <v>38</v>
       </c>
-      <c r="T15" t="s">
-        <v>3</v>
-      </c>
-      <c r="U15" s="1" t="s">
+      <c r="U15" t="s">
+        <v>3</v>
+      </c>
+      <c r="V15" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="V15" s="1" t="s">
+      <c r="W15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="W15" s="1" t="s">
+      <c r="X15" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>16</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>104</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>112</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>106</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>104</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>112</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>106</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>42</v>
       </c>
-      <c r="P16" t="s">
-        <v>3</v>
-      </c>
       <c r="Q16" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="R16" t="s">
         <v>42</v>
       </c>
       <c r="S16" t="s">
+        <v>42</v>
+      </c>
+      <c r="T16" t="s">
         <v>54</v>
       </c>
-      <c r="T16" t="s">
+      <c r="U16" t="s">
         <v>42</v>
       </c>
-      <c r="U16" s="1" t="s">
+      <c r="V16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="V16" s="1" t="s">
+      <c r="W16" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="W16" s="1" t="s">
+      <c r="X16" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>17</v>
       </c>
-      <c r="F17" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" t="s">
-        <v>3</v>
-      </c>
-      <c r="J17" t="s">
+      <c r="G17" t="s">
+        <v>3</v>
+      </c>
+      <c r="I17" t="s">
+        <v>3</v>
+      </c>
+      <c r="K17" t="s">
         <v>111</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>113</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>23</v>
       </c>
-      <c r="N17" t="s">
+      <c r="O17" t="s">
         <v>111</v>
       </c>
-      <c r="O17" t="s">
-        <v>3</v>
-      </c>
       <c r="P17" t="s">
         <v>3</v>
       </c>
@@ -1956,261 +1956,261 @@
         <v>3</v>
       </c>
       <c r="S17" t="s">
+        <v>3</v>
+      </c>
+      <c r="T17" t="s">
         <v>50</v>
       </c>
-      <c r="T17" t="s">
-        <v>3</v>
-      </c>
-      <c r="U17" s="1" t="s">
+      <c r="U17" t="s">
+        <v>3</v>
+      </c>
+      <c r="V17" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="V17" s="1" t="s">
+      <c r="W17" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="W17" s="1" t="s">
+      <c r="X17" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>18</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>96</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>97</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>98</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
         <v>96</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>97</v>
       </c>
-      <c r="N18" t="s">
+      <c r="O18" t="s">
         <v>98</v>
-      </c>
-      <c r="O18" t="s">
-        <v>38</v>
       </c>
       <c r="P18" t="s">
         <v>38</v>
       </c>
       <c r="Q18" t="s">
+        <v>38</v>
+      </c>
+      <c r="R18" t="s">
         <v>39</v>
-      </c>
-      <c r="R18" t="s">
-        <v>38</v>
       </c>
       <c r="S18" t="s">
         <v>38</v>
       </c>
       <c r="T18" t="s">
+        <v>38</v>
+      </c>
+      <c r="U18" t="s">
         <v>39</v>
-      </c>
-      <c r="U18" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="V18" s="1" t="s">
         <v>38</v>
       </c>
       <c r="W18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X18" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>19</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>96</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>97</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>98</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>96</v>
       </c>
-      <c r="M19" t="s">
+      <c r="N19" t="s">
         <v>97</v>
       </c>
-      <c r="N19" t="s">
+      <c r="O19" t="s">
         <v>98</v>
-      </c>
-      <c r="O19" t="s">
-        <v>38</v>
       </c>
       <c r="P19" t="s">
         <v>38</v>
       </c>
       <c r="Q19" t="s">
+        <v>38</v>
+      </c>
+      <c r="R19" t="s">
         <v>39</v>
-      </c>
-      <c r="R19" t="s">
-        <v>38</v>
       </c>
       <c r="S19" t="s">
         <v>38</v>
       </c>
       <c r="T19" t="s">
+        <v>38</v>
+      </c>
+      <c r="U19" t="s">
         <v>39</v>
-      </c>
-      <c r="U19" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="V19" s="1" t="s">
         <v>38</v>
       </c>
       <c r="W19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X19" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>20</v>
       </c>
-      <c r="F20" t="s">
-        <v>3</v>
-      </c>
-      <c r="H20" t="s">
+      <c r="G20" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" t="s">
         <v>114</v>
       </c>
-      <c r="J20" t="s">
-        <v>3</v>
-      </c>
-      <c r="L20" t="s">
+      <c r="K20" t="s">
         <v>3</v>
       </c>
       <c r="M20" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
         <v>114</v>
       </c>
-      <c r="N20" t="s">
+      <c r="O20" t="s">
         <v>115</v>
       </c>
-      <c r="O20" t="s">
-        <v>3</v>
-      </c>
       <c r="P20" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="s">
         <v>43</v>
       </c>
-      <c r="Q20" t="s">
-        <v>3</v>
-      </c>
       <c r="R20" t="s">
         <v>3</v>
       </c>
       <c r="S20" t="s">
+        <v>3</v>
+      </c>
+      <c r="T20" t="s">
         <v>43</v>
       </c>
-      <c r="T20" t="s">
-        <v>3</v>
-      </c>
-      <c r="U20" s="1" t="s">
+      <c r="U20" t="s">
         <v>3</v>
       </c>
       <c r="V20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W20" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="W20" s="1" t="s">
+      <c r="X20" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>21</v>
       </c>
-      <c r="F21" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" t="s">
+      <c r="G21" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" t="s">
         <v>116</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>117</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>110</v>
       </c>
-      <c r="M21" t="s">
+      <c r="N21" t="s">
         <v>116</v>
       </c>
-      <c r="N21" t="s">
+      <c r="O21" t="s">
         <v>117</v>
       </c>
-      <c r="O21" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" t="s">
         <v>44</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="R21" t="s">
         <v>45</v>
       </c>
-      <c r="R21" t="s">
-        <v>3</v>
-      </c>
       <c r="S21" t="s">
+        <v>3</v>
+      </c>
+      <c r="T21" t="s">
         <v>44</v>
       </c>
-      <c r="T21" t="s">
+      <c r="U21" t="s">
         <v>45</v>
       </c>
-      <c r="U21" s="1" t="s">
+      <c r="V21" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="V21" s="1" t="s">
+      <c r="W21" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="W21" s="1" t="s">
+      <c r="X21" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>22</v>
       </c>
-      <c r="F22" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" t="s">
-        <v>3</v>
-      </c>
-      <c r="L22" t="s">
+      <c r="G22" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" t="s">
+        <v>3</v>
+      </c>
+      <c r="K22" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" t="s">
         <v>118</v>
       </c>
-      <c r="M22" t="s">
+      <c r="N22" t="s">
         <v>119</v>
       </c>
-      <c r="N22" t="s">
+      <c r="O22" t="s">
         <v>120</v>
       </c>
-      <c r="O22" t="s">
-        <v>3</v>
-      </c>
       <c r="P22" t="s">
         <v>3</v>
       </c>
@@ -2226,41 +2226,41 @@
       <c r="T22" t="s">
         <v>3</v>
       </c>
-      <c r="U22" s="1" t="s">
+      <c r="U22" t="s">
+        <v>3</v>
+      </c>
+      <c r="V22" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="V22" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="W22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X22" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>24</v>
       </c>
-      <c r="F23" t="s">
-        <v>3</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="G23" t="s">
+        <v>3</v>
+      </c>
+      <c r="I23" t="s">
         <v>122</v>
       </c>
-      <c r="J23" t="s">
-        <v>3</v>
-      </c>
-      <c r="L23" t="s">
+      <c r="K23" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" t="s">
         <v>121</v>
       </c>
-      <c r="M23" t="s">
+      <c r="N23" t="s">
         <v>122</v>
       </c>
-      <c r="N23" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" t="s">
         <v>3</v>
       </c>
@@ -2271,52 +2271,52 @@
         <v>3</v>
       </c>
       <c r="R23" t="s">
+        <v>3</v>
+      </c>
+      <c r="S23" t="s">
         <v>50</v>
       </c>
-      <c r="S23" t="s">
-        <v>3</v>
-      </c>
       <c r="T23" t="s">
         <v>3</v>
       </c>
-      <c r="U23" s="1" t="s">
+      <c r="U23" t="s">
+        <v>3</v>
+      </c>
+      <c r="V23" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="V23" s="1" t="s">
+      <c r="W23" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="W23" s="1" t="s">
+      <c r="X23" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>25</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>123</v>
       </c>
-      <c r="H24" t="s">
-        <v>3</v>
-      </c>
-      <c r="J24" t="s">
+      <c r="I24" t="s">
+        <v>3</v>
+      </c>
+      <c r="K24" t="s">
         <v>125</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>123</v>
       </c>
-      <c r="M24" t="s">
+      <c r="N24" t="s">
         <v>124</v>
       </c>
-      <c r="N24" t="s">
+      <c r="O24" t="s">
         <v>125</v>
       </c>
-      <c r="O24" t="s">
-        <v>3</v>
-      </c>
       <c r="P24" t="s">
         <v>3</v>
       </c>
@@ -2324,158 +2324,158 @@
         <v>3</v>
       </c>
       <c r="R24" t="s">
+        <v>3</v>
+      </c>
+      <c r="S24" t="s">
         <v>55</v>
       </c>
-      <c r="S24" t="s">
-        <v>3</v>
-      </c>
       <c r="T24" t="s">
+        <v>3</v>
+      </c>
+      <c r="U24" t="s">
         <v>55</v>
       </c>
-      <c r="U24" s="1" t="s">
+      <c r="V24" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="V24" s="1" t="s">
+      <c r="W24" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="W24" s="1" t="s">
+      <c r="X24" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>26</v>
       </c>
-      <c r="F25" t="s">
-        <v>3</v>
-      </c>
-      <c r="H25" t="s">
+      <c r="G25" t="s">
+        <v>3</v>
+      </c>
+      <c r="I25" t="s">
         <v>100</v>
       </c>
-      <c r="J25" t="s">
-        <v>3</v>
-      </c>
-      <c r="L25" t="s">
+      <c r="K25" t="s">
+        <v>3</v>
+      </c>
+      <c r="M25" t="s">
         <v>126</v>
       </c>
-      <c r="M25" t="s">
+      <c r="N25" t="s">
         <v>100</v>
       </c>
-      <c r="N25" t="s">
-        <v>3</v>
-      </c>
       <c r="O25" t="s">
         <v>3</v>
       </c>
       <c r="P25" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="s">
         <v>40</v>
       </c>
-      <c r="Q25" t="s">
-        <v>3</v>
-      </c>
       <c r="R25" t="s">
         <v>3</v>
       </c>
       <c r="S25" t="s">
+        <v>3</v>
+      </c>
+      <c r="T25" t="s">
         <v>40</v>
       </c>
-      <c r="T25" t="s">
-        <v>3</v>
-      </c>
-      <c r="U25" s="1" t="s">
+      <c r="U25" t="s">
+        <v>3</v>
+      </c>
+      <c r="V25" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="V25" s="1" t="s">
+      <c r="W25" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="W25" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>27</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>127</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>122</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>106</v>
       </c>
-      <c r="L26" t="s">
+      <c r="M26" t="s">
         <v>127</v>
       </c>
-      <c r="M26" t="s">
+      <c r="N26" t="s">
         <v>122</v>
       </c>
-      <c r="N26" t="s">
+      <c r="O26" t="s">
         <v>106</v>
       </c>
-      <c r="O26" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" t="s">
         <v>3</v>
       </c>
       <c r="Q26" t="s">
+        <v>3</v>
+      </c>
+      <c r="R26" t="s">
         <v>42</v>
       </c>
-      <c r="R26" t="s">
-        <v>3</v>
-      </c>
       <c r="S26" t="s">
         <v>3</v>
       </c>
       <c r="T26" t="s">
+        <v>3</v>
+      </c>
+      <c r="U26" t="s">
         <v>42</v>
       </c>
-      <c r="U26" s="1" t="s">
+      <c r="V26" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="V26" s="1" t="s">
+      <c r="W26" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="W26" s="1" t="s">
+      <c r="X26" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>28</v>
       </c>
-      <c r="F27" t="s">
-        <v>3</v>
-      </c>
-      <c r="H27" t="s">
-        <v>3</v>
-      </c>
-      <c r="J27" t="s">
-        <v>3</v>
-      </c>
-      <c r="L27" t="s">
+      <c r="G27" t="s">
+        <v>3</v>
+      </c>
+      <c r="I27" t="s">
+        <v>3</v>
+      </c>
+      <c r="K27" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" t="s">
         <v>128</v>
       </c>
-      <c r="M27" t="s">
+      <c r="N27" t="s">
         <v>129</v>
       </c>
-      <c r="N27" t="s">
+      <c r="O27" t="s">
         <v>130</v>
       </c>
-      <c r="O27" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" t="s">
         <v>3</v>
       </c>
@@ -2491,44 +2491,44 @@
       <c r="T27" t="s">
         <v>3</v>
       </c>
-      <c r="U27" s="1" t="s">
+      <c r="U27" t="s">
         <v>3</v>
       </c>
       <c r="V27" s="1" t="s">
         <v>3</v>
       </c>
       <c r="W27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X27" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>29</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>131</v>
       </c>
-      <c r="H28" t="s">
-        <v>3</v>
-      </c>
-      <c r="J28" t="s">
+      <c r="I28" t="s">
+        <v>3</v>
+      </c>
+      <c r="K28" t="s">
         <v>133</v>
       </c>
-      <c r="L28" t="s">
+      <c r="M28" t="s">
         <v>131</v>
       </c>
-      <c r="M28" t="s">
+      <c r="N28" t="s">
         <v>132</v>
       </c>
-      <c r="N28" t="s">
+      <c r="O28" t="s">
         <v>133</v>
       </c>
-      <c r="O28" t="s">
-        <v>3</v>
-      </c>
       <c r="P28" t="s">
         <v>3</v>
       </c>
@@ -2544,96 +2544,96 @@
       <c r="T28" t="s">
         <v>3</v>
       </c>
-      <c r="U28" s="1" t="s">
+      <c r="U28" t="s">
+        <v>3</v>
+      </c>
+      <c r="V28" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="V28" s="1" t="s">
+      <c r="W28" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="W28" s="1" t="s">
+      <c r="X28" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>30</v>
       </c>
-      <c r="F29" t="s">
-        <v>3</v>
-      </c>
-      <c r="H29" t="s">
+      <c r="G29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I29" t="s">
         <v>135</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>136</v>
       </c>
-      <c r="L29" t="s">
+      <c r="M29" t="s">
         <v>134</v>
       </c>
-      <c r="M29" t="s">
+      <c r="N29" t="s">
         <v>135</v>
       </c>
-      <c r="N29" t="s">
+      <c r="O29" t="s">
         <v>136</v>
       </c>
-      <c r="O29" t="s">
-        <v>3</v>
-      </c>
       <c r="P29" t="s">
         <v>3</v>
       </c>
       <c r="Q29" t="s">
+        <v>3</v>
+      </c>
+      <c r="R29" t="s">
         <v>46</v>
       </c>
-      <c r="R29" t="s">
-        <v>3</v>
-      </c>
       <c r="S29" t="s">
+        <v>3</v>
+      </c>
+      <c r="T29" t="s">
         <v>56</v>
       </c>
-      <c r="T29" t="s">
+      <c r="U29" t="s">
         <v>46</v>
       </c>
-      <c r="U29" s="1" t="s">
+      <c r="V29" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="V29" s="1" t="s">
+      <c r="W29" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="W29" s="1" t="s">
+      <c r="X29" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>31</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>104</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>105</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>106</v>
       </c>
-      <c r="L30" t="s">
+      <c r="M30" t="s">
         <v>104</v>
       </c>
-      <c r="M30" t="s">
+      <c r="N30" t="s">
         <v>105</v>
       </c>
-      <c r="N30" t="s">
+      <c r="O30" t="s">
         <v>106</v>
-      </c>
-      <c r="O30" t="s">
-        <v>42</v>
       </c>
       <c r="P30" t="s">
         <v>42</v>
@@ -2650,7 +2650,7 @@
       <c r="T30" t="s">
         <v>42</v>
       </c>
-      <c r="U30" s="1" t="s">
+      <c r="U30" t="s">
         <v>42</v>
       </c>
       <c r="V30" s="1" t="s">
@@ -2659,944 +2659,980 @@
       <c r="W30" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="F32" s="6" t="s">
+      <c r="X30" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="G32" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="L32" t="s">
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="M32" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>147</v>
       </c>
       <c r="B33" t="s">
+        <v>182</v>
+      </c>
+      <c r="C33" t="s">
         <v>155</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>158</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>159</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>0</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>1</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="H33" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>32</v>
       </c>
-      <c r="I33" s="4" t="s">
+      <c r="J33" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
         <v>34</v>
       </c>
-      <c r="K33" s="4" t="s">
+      <c r="L33" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="L33" t="s">
+      <c r="M33" t="s">
         <v>140</v>
       </c>
-      <c r="M33" t="s">
+      <c r="N33" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
-        <v>152</v>
-      </c>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
         <v>152</v>
       </c>
-      <c r="E34" t="s">
+      <c r="D34" t="s">
+        <v>152</v>
+      </c>
+      <c r="F34" t="s">
         <v>2</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>82</v>
       </c>
-      <c r="G34" s="11" t="s">
+      <c r="H34" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>83</v>
       </c>
-      <c r="I34" s="4" t="s">
+      <c r="J34" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="J34" t="s">
-        <v>3</v>
-      </c>
-      <c r="L34" t="s">
+      <c r="K34" t="s">
+        <v>3</v>
+      </c>
+      <c r="M34" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
-        <v>152</v>
-      </c>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
         <v>152</v>
       </c>
-      <c r="E35" t="s">
+      <c r="D35" t="s">
+        <v>152</v>
+      </c>
+      <c r="F35" t="s">
         <v>4</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>85</v>
       </c>
-      <c r="G35" s="13">
+      <c r="H35" s="12">
         <v>2</v>
       </c>
-      <c r="H35" t="s">
-        <v>3</v>
-      </c>
-      <c r="J35" t="s">
+      <c r="I35" t="s">
+        <v>3</v>
+      </c>
+      <c r="K35" t="s">
         <v>86</v>
       </c>
-      <c r="L35" t="s">
+      <c r="M35" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
-        <v>152</v>
-      </c>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
         <v>152</v>
       </c>
       <c r="D36" t="s">
+        <v>152</v>
+      </c>
+      <c r="E36" t="s">
         <v>163</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>5</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="G36" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="G36" s="14">
+      <c r="H36" s="13">
         <v>0</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>33</v>
       </c>
-      <c r="I36" s="16">
+      <c r="J36" s="15">
         <v>1</v>
       </c>
-      <c r="J36" s="5" t="s">
+      <c r="K36" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="K36" s="16">
+      <c r="L36" s="15">
         <v>0</v>
       </c>
-      <c r="L36" t="s">
+      <c r="M36" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="18" t="s">
+    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="B37" t="s">
-        <v>152</v>
-      </c>
-      <c r="D37" s="5" t="s">
+      <c r="B37" s="17"/>
+      <c r="C37" t="s">
+        <v>152</v>
+      </c>
+      <c r="E37" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>6</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="G37" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="G37" s="14">
+      <c r="H37" s="13">
         <v>0</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="I37" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="I37" s="16">
+      <c r="J37" s="15">
         <v>0</v>
       </c>
-      <c r="J37" s="2" t="s">
+      <c r="K37" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="K37" s="16">
+      <c r="L37" s="15">
         <v>0</v>
       </c>
-      <c r="L37" s="2" t="s">
+      <c r="M37" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B38">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>152</v>
+      </c>
+      <c r="C38">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>7</v>
       </c>
-      <c r="F38" t="s">
-        <v>3</v>
-      </c>
-      <c r="G38" s="11"/>
-      <c r="H38" t="s">
-        <v>3</v>
-      </c>
-      <c r="J38" t="s">
-        <v>3</v>
-      </c>
-      <c r="L38" t="s">
+      <c r="G38" t="s">
+        <v>3</v>
+      </c>
+      <c r="H38" s="10"/>
+      <c r="I38" t="s">
+        <v>3</v>
+      </c>
+      <c r="K38" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
-        <v>152</v>
-      </c>
-      <c r="E39" t="s">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
+        <v>152</v>
+      </c>
+      <c r="F39" t="s">
         <v>8</v>
       </c>
-      <c r="F39" t="s">
-        <v>3</v>
-      </c>
-      <c r="G39" s="11"/>
-      <c r="H39" t="s">
-        <v>3</v>
-      </c>
-      <c r="J39" t="s">
-        <v>3</v>
-      </c>
-      <c r="L39" t="s">
+      <c r="G39" t="s">
+        <v>3</v>
+      </c>
+      <c r="H39" s="10"/>
+      <c r="I39" t="s">
+        <v>3</v>
+      </c>
+      <c r="K39" t="s">
+        <v>3</v>
+      </c>
+      <c r="M39" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40" s="19" t="s">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="D40" t="s">
-        <v>152</v>
-      </c>
+      <c r="B40" s="18"/>
       <c r="E40" t="s">
+        <v>152</v>
+      </c>
+      <c r="F40" t="s">
         <v>9</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="G40" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G40" s="14">
+      <c r="H40" s="13">
         <v>0</v>
       </c>
-      <c r="H40" s="2" t="s">
+      <c r="I40" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="I40" s="16">
+      <c r="J40" s="15">
         <v>0</v>
       </c>
-      <c r="J40" s="2" t="s">
+      <c r="K40" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="K40" s="16">
+      <c r="L40" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>152</v>
       </c>
-      <c r="E41" t="s">
+      <c r="C41" t="s">
+        <v>152</v>
+      </c>
+      <c r="F41" t="s">
         <v>10</v>
       </c>
-      <c r="F41" t="s">
-        <v>3</v>
-      </c>
-      <c r="G41" s="11"/>
-      <c r="H41" t="s">
-        <v>3</v>
-      </c>
-      <c r="J41" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
+      <c r="G41" t="s">
+        <v>3</v>
+      </c>
+      <c r="H41" s="10"/>
+      <c r="I41" t="s">
+        <v>3</v>
+      </c>
+      <c r="K41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C42" t="s">
         <v>156</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>11</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="G42" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="G42" s="12">
+      <c r="H42" s="11">
         <v>1</v>
       </c>
-      <c r="H42" s="2" t="s">
+      <c r="I42" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="I42" s="9">
+      <c r="J42" s="8">
         <v>1</v>
       </c>
-      <c r="J42" s="2" t="s">
+      <c r="K42" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="K42" s="9">
+      <c r="L42" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>152</v>
       </c>
       <c r="C43" t="s">
         <v>152</v>
       </c>
-      <c r="E43" t="s">
+      <c r="D43" t="s">
+        <v>152</v>
+      </c>
+      <c r="F43" t="s">
         <v>12</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>102</v>
       </c>
-      <c r="G43" s="11"/>
-      <c r="H43" t="s">
-        <v>3</v>
-      </c>
-      <c r="J43" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A44" s="18" t="s">
+      <c r="H43" s="10"/>
+      <c r="I43" t="s">
+        <v>3</v>
+      </c>
+      <c r="K43" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="D44" t="s">
+      <c r="B44" s="17" t="s">
         <v>152</v>
       </c>
       <c r="E44" t="s">
+        <v>152</v>
+      </c>
+      <c r="F44" t="s">
         <v>13</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="G44" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="G44" s="14">
+      <c r="H44" s="13">
         <v>0</v>
       </c>
-      <c r="H44" s="2" t="s">
+      <c r="I44" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="I44" s="16">
+      <c r="J44" s="15">
         <v>0</v>
       </c>
-      <c r="J44" s="2" t="s">
+      <c r="K44" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="K44" s="16">
+      <c r="L44" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
-        <v>152</v>
-      </c>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
         <v>152</v>
       </c>
-      <c r="E45" t="s">
+      <c r="D45" t="s">
+        <v>152</v>
+      </c>
+      <c r="F45" t="s">
         <v>14</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>107</v>
       </c>
-      <c r="G45" s="15">
+      <c r="H45" s="14">
         <v>5</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>108</v>
       </c>
-      <c r="I45" s="16">
+      <c r="J45" s="15">
         <v>1</v>
       </c>
-      <c r="J45" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K45" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>152</v>
       </c>
       <c r="C46" t="s">
         <v>152</v>
       </c>
-      <c r="E46" t="s">
+      <c r="D46" t="s">
+        <v>152</v>
+      </c>
+      <c r="F46" t="s">
         <v>15</v>
       </c>
-      <c r="F46" t="s">
-        <v>3</v>
-      </c>
-      <c r="G46" s="11"/>
-      <c r="H46" t="s">
+      <c r="G46" t="s">
+        <v>3</v>
+      </c>
+      <c r="H46" s="10"/>
+      <c r="I46" t="s">
         <v>146</v>
       </c>
-      <c r="I46" s="16">
+      <c r="J46" s="15">
         <v>0</v>
       </c>
-      <c r="J46" t="s">
+      <c r="K46" t="s">
         <v>111</v>
       </c>
-      <c r="K46" s="4" t="s">
+      <c r="L46" s="4" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>151</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>157</v>
       </c>
-      <c r="C47" t="s">
-        <v>152</v>
-      </c>
       <c r="D47" t="s">
+        <v>152</v>
+      </c>
+      <c r="E47" t="s">
         <v>161</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>16</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="G47" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="G47" s="14">
+      <c r="H47" s="13">
         <v>0</v>
       </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>112</v>
       </c>
-      <c r="J47" s="5" t="s">
+      <c r="K47" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="K47" s="16">
+      <c r="L47" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
-        <v>152</v>
-      </c>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C48" t="s">
         <v>152</v>
       </c>
-      <c r="E48" t="s">
+      <c r="D48" t="s">
+        <v>152</v>
+      </c>
+      <c r="F48" t="s">
         <v>17</v>
       </c>
-      <c r="F48" t="s">
-        <v>3</v>
-      </c>
-      <c r="G48" s="11"/>
-      <c r="H48" t="s">
-        <v>3</v>
-      </c>
-      <c r="J48" t="s">
+      <c r="G48" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48" s="10"/>
+      <c r="I48" t="s">
+        <v>3</v>
+      </c>
+      <c r="K48" t="s">
         <v>111</v>
       </c>
-      <c r="K48" s="4" t="s">
+      <c r="L48" s="4" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D49" t="s">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
         <v>152</v>
       </c>
       <c r="E49" t="s">
+        <v>152</v>
+      </c>
+      <c r="F49" t="s">
         <v>18</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="G49" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G49" s="14">
+      <c r="H49" s="13">
         <v>0</v>
       </c>
-      <c r="H49" s="2" t="s">
+      <c r="I49" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="I49" s="16">
+      <c r="J49" s="15">
         <v>0</v>
       </c>
-      <c r="J49" s="2" t="s">
+      <c r="K49" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="K49" s="16">
+      <c r="L49" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A50" s="18" t="s">
+    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="D50" t="s">
+      <c r="B50" s="17" t="s">
         <v>152</v>
       </c>
       <c r="E50" t="s">
+        <v>152</v>
+      </c>
+      <c r="F50" t="s">
         <v>19</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="G50" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G50" s="14">
+      <c r="H50" s="13">
         <v>0</v>
       </c>
-      <c r="H50" s="2" t="s">
+      <c r="I50" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="I50" s="16">
+      <c r="J50" s="15">
         <v>0</v>
       </c>
-      <c r="J50" s="2" t="s">
+      <c r="K50" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="K50" s="16">
+      <c r="L50" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B51" t="s">
-        <v>152</v>
-      </c>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C51" t="s">
         <v>152</v>
       </c>
       <c r="D51" t="s">
+        <v>152</v>
+      </c>
+      <c r="E51" t="s">
         <v>160</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>20</v>
       </c>
-      <c r="F51" s="5" t="s">
+      <c r="G51" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="G51" s="15">
+      <c r="H51" s="14">
         <v>0</v>
       </c>
-      <c r="H51" s="5" t="s">
+      <c r="I51" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="I51" s="17">
+      <c r="J51" s="16">
         <v>0</v>
       </c>
-      <c r="J51" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B52">
+      <c r="K51" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C52">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="C52" t="s">
-        <v>152</v>
-      </c>
-      <c r="E52" t="s">
+      <c r="D52" t="s">
+        <v>152</v>
+      </c>
+      <c r="F52" t="s">
         <v>21</v>
       </c>
-      <c r="F52" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="11"/>
-      <c r="H52" t="s">
+      <c r="G52" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="10"/>
+      <c r="I52" t="s">
         <v>116</v>
       </c>
-      <c r="I52" s="16">
+      <c r="J52" s="15">
         <v>1</v>
       </c>
-      <c r="J52" t="s">
+      <c r="K52" t="s">
         <v>117</v>
       </c>
-      <c r="K52" s="17">
+      <c r="L52" s="16">
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>152</v>
       </c>
-      <c r="E53" t="s">
+      <c r="C53" t="s">
+        <v>152</v>
+      </c>
+      <c r="F53" t="s">
         <v>22</v>
       </c>
-      <c r="F53" t="s">
-        <v>3</v>
-      </c>
-      <c r="G53" s="11"/>
-      <c r="H53" t="s">
-        <v>3</v>
-      </c>
-      <c r="J53" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A54" s="18" t="s">
+      <c r="G53" t="s">
+        <v>3</v>
+      </c>
+      <c r="H53" s="10"/>
+      <c r="I53" t="s">
+        <v>3</v>
+      </c>
+      <c r="K53" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="B54" t="s">
-        <v>152</v>
-      </c>
+      <c r="B54" s="17"/>
       <c r="C54" t="s">
         <v>152</v>
       </c>
-      <c r="E54" t="s">
+      <c r="D54" t="s">
+        <v>152</v>
+      </c>
+      <c r="F54" t="s">
         <v>24</v>
       </c>
-      <c r="F54" t="s">
-        <v>3</v>
-      </c>
-      <c r="G54" s="11"/>
-      <c r="H54" t="s">
+      <c r="G54" t="s">
+        <v>3</v>
+      </c>
+      <c r="H54" s="10"/>
+      <c r="I54" t="s">
         <v>122</v>
       </c>
-      <c r="I54" s="16">
+      <c r="J54" s="15">
         <v>8</v>
       </c>
-      <c r="J54" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B55" t="s">
-        <v>152</v>
-      </c>
+      <c r="K54" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C55" t="s">
         <v>152</v>
       </c>
-      <c r="E55" t="s">
+      <c r="D55" t="s">
+        <v>152</v>
+      </c>
+      <c r="F55" t="s">
         <v>25</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>123</v>
       </c>
-      <c r="G55" s="14" t="s">
+      <c r="H55" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="H55" t="s">
-        <v>3</v>
-      </c>
-      <c r="J55" t="s">
+      <c r="I55" t="s">
+        <v>3</v>
+      </c>
+      <c r="K55" t="s">
         <v>125</v>
       </c>
-      <c r="K55" s="16">
+      <c r="L55" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B56" t="s">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C56" t="s">
         <v>157</v>
       </c>
-      <c r="C56" t="s">
-        <v>152</v>
-      </c>
-      <c r="E56" t="s">
+      <c r="D56" t="s">
+        <v>152</v>
+      </c>
+      <c r="F56" t="s">
         <v>26</v>
       </c>
-      <c r="F56" t="s">
-        <v>3</v>
-      </c>
-      <c r="G56" s="11"/>
-      <c r="H56" t="s">
+      <c r="G56" t="s">
+        <v>3</v>
+      </c>
+      <c r="H56" s="10"/>
+      <c r="I56" t="s">
         <v>100</v>
       </c>
-      <c r="J56" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B57" t="s">
-        <v>152</v>
-      </c>
+      <c r="K56" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C57" t="s">
         <v>152</v>
       </c>
-      <c r="E57" t="s">
+      <c r="D57" t="s">
+        <v>152</v>
+      </c>
+      <c r="F57" t="s">
         <v>27</v>
       </c>
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>127</v>
       </c>
-      <c r="G57" s="14">
+      <c r="H57" s="13">
         <v>2</v>
       </c>
-      <c r="H57" t="s">
+      <c r="I57" t="s">
         <v>122</v>
       </c>
-      <c r="I57" s="16">
+      <c r="J57" s="15">
         <v>8</v>
       </c>
-      <c r="J57" t="s">
+      <c r="K57" t="s">
         <v>145</v>
       </c>
-      <c r="K57" s="16">
+      <c r="L57" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B58">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C58">
         <v>0.14624000000000001</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>28</v>
       </c>
-      <c r="F58" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="11"/>
-      <c r="H58" t="s">
-        <v>3</v>
-      </c>
-      <c r="J58" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B59" t="s">
+      <c r="G58" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="10"/>
+      <c r="I58" t="s">
+        <v>3</v>
+      </c>
+      <c r="K58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C59" t="s">
         <v>157</v>
       </c>
-      <c r="C59" t="s">
-        <v>152</v>
-      </c>
-      <c r="E59" t="s">
+      <c r="D59" t="s">
+        <v>152</v>
+      </c>
+      <c r="F59" t="s">
         <v>29</v>
       </c>
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>131</v>
       </c>
-      <c r="G59" s="11"/>
-      <c r="H59" t="s">
-        <v>3</v>
-      </c>
-      <c r="J59" t="s">
+      <c r="H59" s="10"/>
+      <c r="I59" t="s">
+        <v>3</v>
+      </c>
+      <c r="K59" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B60" t="s">
-        <v>152</v>
-      </c>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C60" t="s">
         <v>152</v>
       </c>
-      <c r="E60" t="s">
+      <c r="D60" t="s">
+        <v>152</v>
+      </c>
+      <c r="F60" t="s">
         <v>30</v>
       </c>
-      <c r="F60" t="s">
-        <v>3</v>
-      </c>
-      <c r="G60" s="11"/>
-      <c r="H60" t="s">
+      <c r="G60" t="s">
+        <v>3</v>
+      </c>
+      <c r="H60" s="10"/>
+      <c r="I60" t="s">
         <v>135</v>
       </c>
-      <c r="J60" t="s">
+      <c r="K60" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>149</v>
       </c>
-      <c r="D61" t="s">
+      <c r="B61" t="s">
         <v>152</v>
       </c>
       <c r="E61" t="s">
+        <v>152</v>
+      </c>
+      <c r="F61" t="s">
         <v>31</v>
       </c>
-      <c r="F61" s="2" t="s">
+      <c r="G61" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="G61" s="14">
+      <c r="H61" s="13">
         <v>0</v>
       </c>
-      <c r="H61" s="2" t="s">
+      <c r="I61" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="I61" s="16">
+      <c r="J61" s="15">
         <v>0</v>
       </c>
-      <c r="J61" s="2" t="s">
+      <c r="K61" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="K61" s="16">
+      <c r="L61" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F62" s="2" t="s">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G62" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="G62" s="14">
-        <f>SUM(G34:G61)/COUNT(G34:G61)</f>
+      <c r="H62" s="13">
+        <f>SUM(H34:H61)/COUNT(H34:H61)</f>
         <v>0.76923076923076927</v>
       </c>
-      <c r="H62" s="14"/>
-      <c r="I62" s="14">
-        <f t="shared" ref="I62:K62" si="0">SUM(I34:I61)/COUNT(I34:I61)</f>
+      <c r="I62" s="13"/>
+      <c r="J62" s="13">
+        <f t="shared" ref="J62:L62" si="0">SUM(J34:J61)/COUNT(J34:J61)</f>
         <v>1.4285714285714286</v>
       </c>
-      <c r="J62" s="14"/>
-      <c r="K62" s="14">
+      <c r="K62" s="13"/>
+      <c r="L62" s="13">
         <f t="shared" si="0"/>
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C63">
-        <f>COUNTA(C34:C61)</f>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D63">
+        <f>COUNTA(D34:D61)</f>
         <v>16</v>
       </c>
-      <c r="E63" s="3" t="s">
+      <c r="F63" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C64">
-        <f>C63-2</f>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D64">
+        <f>D63-2</f>
         <v>14</v>
       </c>
-      <c r="E64" s="3" t="s">
+      <c r="F64" s="3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="72" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E72" t="s">
+    <row r="72" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F72" t="s">
         <v>148</v>
       </c>
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="73" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E73" t="s">
+    <row r="73" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F73" t="s">
         <v>175</v>
       </c>
-      <c r="F73" s="5" t="s">
+      <c r="G73" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="G73" s="8"/>
-      <c r="J73" s="5" t="s">
+      <c r="H73" s="7"/>
+      <c r="K73" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="K73" s="8"/>
-    </row>
-    <row r="74" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E74" t="s">
+      <c r="L73" s="7"/>
+    </row>
+    <row r="74" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F74" t="s">
         <v>174</v>
       </c>
-      <c r="F74" s="2" t="s">
+      <c r="G74" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="G74" s="9"/>
-      <c r="H74" s="2" t="s">
+      <c r="H74" s="8"/>
+      <c r="I74" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="I74" s="9"/>
-      <c r="J74" s="2" t="s">
+      <c r="J74" s="8"/>
+      <c r="K74" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="K74" s="9"/>
-    </row>
-    <row r="75" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E75" t="s">
+      <c r="L74" s="8"/>
+    </row>
+    <row r="75" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F75" t="s">
         <v>173</v>
       </c>
-      <c r="F75" s="5" t="s">
+      <c r="G75" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="G75" s="8"/>
-      <c r="H75" s="5" t="s">
+      <c r="H75" s="7"/>
+      <c r="I75" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="I75" s="8"/>
-    </row>
-    <row r="76" spans="5:11" ht="408" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E76" t="s">
+      <c r="J75" s="7"/>
+    </row>
+    <row r="76" spans="6:12" ht="408" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F76" t="s">
         <v>172</v>
       </c>
-      <c r="F76" s="7" t="s">
+      <c r="G76" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="G76" s="10"/>
-      <c r="H76" s="7" t="s">
+      <c r="H76" s="9"/>
+      <c r="I76" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="I76" s="10"/>
-      <c r="J76" s="7" t="s">
+      <c r="J76" s="9"/>
+      <c r="K76" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="K76" s="10"/>
-    </row>
-    <row r="78" spans="5:11" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="E78" t="s">
+      <c r="L76" s="9"/>
+    </row>
+    <row r="78" spans="6:12" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="F78" t="s">
         <v>11</v>
       </c>
-      <c r="F78" s="7" t="s">
+      <c r="G78" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="G78" s="10"/>
-      <c r="H78" s="7" t="s">
+      <c r="H78" s="9"/>
+      <c r="I78" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="I78" s="10"/>
-      <c r="J78" s="7" t="s">
+      <c r="J78" s="9"/>
+      <c r="K78" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="K78" s="10"/>
+      <c r="L78" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="F32:J32"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="G32:K32"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="G1:K1"/>
   </mergeCells>
-  <conditionalFormatting sqref="O3:Q30 F73:G73 J73:K73 F34:K48 H50:K50 G49:K49 F49:F50 F51:K62">
+  <conditionalFormatting sqref="P3:R30 G73:H73 K73:L73 G34:L48 I50:L50 H49:L49 G49:G50 G51:L62">
     <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="unk">
-      <formula>NOT(ISERROR(SEARCH("unk",F3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("unk",G3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R3:T30">
+  <conditionalFormatting sqref="S3:U30">
     <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="unk">
-      <formula>NOT(ISERROR(SEARCH("unk",R3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("unk",S3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:W30 F32:G32 M33 L32:L39">
+  <conditionalFormatting sqref="G3:X30 G32:H32 N33 M32:M39">
     <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="unk">
-      <formula>NOT(ISERROR(SEARCH("unk",F3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("unk",G3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F76:K76">
+  <conditionalFormatting sqref="G76:L76">
     <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="unk">
-      <formula>NOT(ISERROR(SEARCH("unk",F76)))</formula>
+      <formula>NOT(ISERROR(SEARCH("unk",G76)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F78:K78">
+  <conditionalFormatting sqref="G78:L78">
     <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="unk">
-      <formula>NOT(ISERROR(SEARCH("unk",F78)))</formula>
+      <formula>NOT(ISERROR(SEARCH("unk",G78)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F75:I75">
+  <conditionalFormatting sqref="G75:J75">
     <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="unk">
-      <formula>NOT(ISERROR(SEARCH("unk",F75)))</formula>
+      <formula>NOT(ISERROR(SEARCH("unk",G75)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F74:K74">
+  <conditionalFormatting sqref="G74:L74">
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="unk">
-      <formula>NOT(ISERROR(SEARCH("unk",F74)))</formula>
+      <formula>NOT(ISERROR(SEARCH("unk",G74)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Axelrod FP.xlsx
+++ b/Axelrod FP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnpaulmintz/Dissertation/Analysis (git)/Still-Falls Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE384F3-1380-504D-B87F-49A4473196F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{173F97C7-8078-314D-B53A-02B55987606E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="260" yWindow="460" windowWidth="28040" windowHeight="15980" xr2:uid="{C5A99E80-ED8F-0C4D-90B9-C385916291CE}"/>
   </bookViews>
@@ -1081,8 +1081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE244BE4-BC56-524C-9A32-34902536105F}">
   <dimension ref="A1:X78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D26" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView tabSelected="1" topLeftCell="C29" workbookViewId="0">
+      <selection activeCell="K60" sqref="K60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Axelrod FP.xlsx
+++ b/Axelrod FP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnpaulmintz/Dissertation/Analysis (git)/Still-Falls Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{173F97C7-8078-314D-B53A-02B55987606E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1168D7A-380B-7F44-9EED-6C1C370616F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="260" yWindow="460" windowWidth="28040" windowHeight="15980" xr2:uid="{C5A99E80-ED8F-0C4D-90B9-C385916291CE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="183">
   <si>
     <t>id</t>
   </si>
@@ -599,7 +599,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -630,6 +630,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -644,7 +650,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -693,6 +699,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1081,8 +1088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE244BE4-BC56-524C-9A32-34902536105F}">
   <dimension ref="A1:X78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C29" workbookViewId="0">
-      <selection activeCell="K60" sqref="K60"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1301,13 +1308,13 @@
       <c r="K5" t="s">
         <v>3</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="20" t="s">
         <v>87</v>
       </c>
       <c r="N5" t="s">
         <v>33</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5" s="20" t="s">
         <v>88</v>
       </c>
       <c r="P5" t="s">
@@ -1338,9 +1345,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>152</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -1513,13 +1523,13 @@
       <c r="K9" t="s">
         <v>98</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="N9" t="s">
+      <c r="N9" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="O9" t="s">
+      <c r="O9" s="20" t="s">
         <v>98</v>
       </c>
       <c r="P9" t="s">
@@ -1531,13 +1541,13 @@
       <c r="R9" t="s">
         <v>39</v>
       </c>
-      <c r="S9" t="s">
+      <c r="S9" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="T9" t="s">
+      <c r="T9" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="U9" t="s">
+      <c r="U9" s="20" t="s">
         <v>39</v>
       </c>
       <c r="V9" s="1" t="s">
@@ -1619,13 +1629,13 @@
       <c r="K11" t="s">
         <v>101</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="N11" t="s">
+      <c r="N11" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="O11" t="s">
+      <c r="O11" s="20" t="s">
         <v>101</v>
       </c>
       <c r="P11" t="s">
@@ -1637,13 +1647,13 @@
       <c r="R11" t="s">
         <v>41</v>
       </c>
-      <c r="S11" t="s">
+      <c r="S11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="T11" t="s">
+      <c r="T11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="U11" t="s">
+      <c r="U11" s="20" t="s">
         <v>41</v>
       </c>
       <c r="V11" s="1" t="s">
@@ -1709,10 +1719,13 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
+      <c r="E13" t="s">
+        <v>152</v>
+      </c>
       <c r="F13" t="s">
         <v>13</v>
       </c>
@@ -1725,13 +1738,13 @@
       <c r="K13" t="s">
         <v>106</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M13" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="N13" t="s">
+      <c r="N13" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="O13" t="s">
+      <c r="O13" s="20" t="s">
         <v>106</v>
       </c>
       <c r="P13" t="s">
@@ -1743,13 +1756,13 @@
       <c r="R13" t="s">
         <v>42</v>
       </c>
-      <c r="S13" t="s">
+      <c r="S13" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="T13" t="s">
+      <c r="T13" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="U13" t="s">
+      <c r="U13" s="20" t="s">
         <v>42</v>
       </c>
       <c r="V13" s="1" t="s">
@@ -1778,13 +1791,13 @@
       <c r="K14" t="s">
         <v>3</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M14" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="N14" t="s">
+      <c r="N14" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="O14" t="s">
+      <c r="O14" s="20" t="s">
         <v>109</v>
       </c>
       <c r="P14" t="s">
@@ -1796,10 +1809,10 @@
       <c r="R14" t="s">
         <v>3</v>
       </c>
-      <c r="S14" t="s">
+      <c r="S14" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="T14" t="s">
+      <c r="T14" s="20" t="s">
         <v>52</v>
       </c>
       <c r="U14" t="s">
@@ -1884,13 +1897,13 @@
       <c r="K16" t="s">
         <v>106</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M16" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="N16" t="s">
+      <c r="N16" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="O16" t="s">
+      <c r="O16" s="20" t="s">
         <v>106</v>
       </c>
       <c r="P16" t="s">
@@ -1902,13 +1915,13 @@
       <c r="R16" t="s">
         <v>42</v>
       </c>
-      <c r="S16" t="s">
+      <c r="S16" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="T16" t="s">
+      <c r="T16" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="U16" t="s">
+      <c r="U16" s="20" t="s">
         <v>42</v>
       </c>
       <c r="V16" s="1" t="s">
@@ -1990,13 +2003,13 @@
       <c r="K18" t="s">
         <v>98</v>
       </c>
-      <c r="M18" t="s">
+      <c r="M18" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="N18" t="s">
+      <c r="N18" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="O18" t="s">
+      <c r="O18" s="20" t="s">
         <v>98</v>
       </c>
       <c r="P18" t="s">
@@ -2008,13 +2021,13 @@
       <c r="R18" t="s">
         <v>39</v>
       </c>
-      <c r="S18" t="s">
+      <c r="S18" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="T18" t="s">
+      <c r="T18" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="U18" t="s">
+      <c r="U18" s="20" t="s">
         <v>39</v>
       </c>
       <c r="V18" s="1" t="s">
@@ -2027,10 +2040,13 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
+      <c r="E19" t="s">
+        <v>152</v>
+      </c>
       <c r="F19" t="s">
         <v>19</v>
       </c>
@@ -2043,13 +2059,13 @@
       <c r="K19" t="s">
         <v>98</v>
       </c>
-      <c r="M19" t="s">
+      <c r="M19" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="N19" t="s">
+      <c r="N19" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="O19" t="s">
+      <c r="O19" s="20" t="s">
         <v>98</v>
       </c>
       <c r="P19" t="s">
@@ -2061,13 +2077,13 @@
       <c r="R19" t="s">
         <v>39</v>
       </c>
-      <c r="S19" t="s">
+      <c r="S19" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="T19" t="s">
+      <c r="T19" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="U19" t="s">
+      <c r="U19" s="20" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="1" t="s">
@@ -2149,10 +2165,10 @@
       <c r="K21" t="s">
         <v>117</v>
       </c>
-      <c r="M21" t="s">
+      <c r="M21" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="N21" t="s">
+      <c r="N21" s="20" t="s">
         <v>116</v>
       </c>
       <c r="O21" t="s">
@@ -2239,9 +2255,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
+      </c>
+      <c r="E23" t="s">
+        <v>152</v>
       </c>
       <c r="F23" t="s">
         <v>24</v>
@@ -2311,10 +2330,10 @@
       <c r="M24" t="s">
         <v>123</v>
       </c>
-      <c r="N24" t="s">
+      <c r="N24" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="O24" t="s">
+      <c r="O24" s="20" t="s">
         <v>125</v>
       </c>
       <c r="P24" t="s">
@@ -2326,13 +2345,13 @@
       <c r="R24" t="s">
         <v>3</v>
       </c>
-      <c r="S24" t="s">
+      <c r="S24" s="20" t="s">
         <v>55</v>
       </c>
       <c r="T24" t="s">
         <v>3</v>
       </c>
-      <c r="U24" t="s">
+      <c r="U24" s="20" t="s">
         <v>55</v>
       </c>
       <c r="V24" s="1" t="s">
@@ -2361,10 +2380,10 @@
       <c r="K25" t="s">
         <v>3</v>
       </c>
-      <c r="M25" t="s">
+      <c r="M25" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="N25" t="s">
+      <c r="N25" s="20" t="s">
         <v>100</v>
       </c>
       <c r="O25" t="s">
@@ -2414,13 +2433,13 @@
       <c r="K26" t="s">
         <v>106</v>
       </c>
-      <c r="M26" t="s">
+      <c r="M26" s="20" t="s">
         <v>127</v>
       </c>
       <c r="N26" t="s">
         <v>122</v>
       </c>
-      <c r="O26" t="s">
+      <c r="O26" s="20" t="s">
         <v>106</v>
       </c>
       <c r="P26" t="s">
@@ -2523,10 +2542,10 @@
       <c r="M28" t="s">
         <v>131</v>
       </c>
-      <c r="N28" t="s">
+      <c r="N28" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="O28" t="s">
+      <c r="O28" s="20" t="s">
         <v>133</v>
       </c>
       <c r="P28" t="s">
@@ -2573,13 +2592,13 @@
       <c r="K29" t="s">
         <v>136</v>
       </c>
-      <c r="M29" t="s">
+      <c r="M29" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="N29" t="s">
+      <c r="N29" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="O29" t="s">
+      <c r="O29" s="5" t="s">
         <v>136</v>
       </c>
       <c r="P29" t="s">
@@ -2588,7 +2607,7 @@
       <c r="Q29" t="s">
         <v>3</v>
       </c>
-      <c r="R29" t="s">
+      <c r="R29" s="20" t="s">
         <v>46</v>
       </c>
       <c r="S29" t="s">
@@ -2597,7 +2616,7 @@
       <c r="T29" t="s">
         <v>56</v>
       </c>
-      <c r="U29" t="s">
+      <c r="U29" s="20" t="s">
         <v>46</v>
       </c>
       <c r="V29" s="1" t="s">
@@ -2626,13 +2645,13 @@
       <c r="K30" t="s">
         <v>106</v>
       </c>
-      <c r="M30" t="s">
+      <c r="M30" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="N30" t="s">
+      <c r="N30" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="O30" t="s">
+      <c r="O30" s="20" t="s">
         <v>106</v>
       </c>
       <c r="P30" t="s">
@@ -2809,7 +2828,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="17" t="s">
         <v>148</v>
       </c>
@@ -2991,7 +3010,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="17" t="s">
         <v>148</v>
       </c>
@@ -3164,7 +3183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="17" t="s">
         <v>148</v>
       </c>
@@ -3273,7 +3292,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="17" t="s">
         <v>148</v>
       </c>
